--- a/applications/master/data/national/InputForCode_Master.xlsx
+++ b/applications/master/data/national/InputForCode_Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/Projects/Master/data/national/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{49D73504-0D60-304D-8D59-0D05E395D0DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6DB52739-724D-1C4B-B7D9-53B0857B3234}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2209,7 +2209,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
@@ -2218,12 +2218,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
         </r>
       </text>
     </comment>
@@ -3796,7 +3805,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7344,13 +7353,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>93</v>
       </c>
@@ -7361,7 +7370,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="16" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -7372,7 +7381,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -7380,7 +7389,7 @@
         <v>15204000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -7388,7 +7397,7 @@
         <v>3118117</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -7397,7 +7406,7 @@
         <v>3677298.8269880489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>63</v>
       </c>
@@ -7405,7 +7414,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
@@ -7413,7 +7422,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>64</v>
       </c>
@@ -7421,7 +7430,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>170</v>
       </c>
@@ -7429,7 +7438,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>171</v>
       </c>
@@ -7437,7 +7446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>172</v>
       </c>
@@ -7445,7 +7454,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="13">
       <c r="B12" t="s">
         <v>210</v>
       </c>
@@ -7453,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="13">
       <c r="B13" t="s">
         <v>211</v>
       </c>
@@ -7461,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="13">
       <c r="B14" s="4" t="s">
         <v>216</v>
       </c>
@@ -7469,15 +7478,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="13">
       <c r="B15" s="4"/>
       <c r="C15" s="37"/>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="13">
       <c r="B16" s="4"/>
       <c r="C16" s="37"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>102</v>
       </c>
@@ -7489,7 +7498,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="B18" t="s">
         <v>100</v>
       </c>
@@ -7497,7 +7506,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="B19" t="s">
         <v>101</v>
       </c>
@@ -7505,7 +7514,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="B20" s="98" t="s">
         <v>267</v>
       </c>
@@ -7513,7 +7522,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="B21" s="98" t="s">
         <v>268</v>
       </c>
@@ -7521,7 +7530,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="B22" s="98" t="s">
         <v>269</v>
       </c>
@@ -7529,11 +7538,11 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -7544,7 +7553,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="B26" s="21" t="s">
         <v>88</v>
       </c>
@@ -7552,7 +7561,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="B27" s="21" t="s">
         <v>89</v>
       </c>
@@ -7560,7 +7569,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="B28" s="21" t="s">
         <v>90</v>
       </c>
@@ -7568,7 +7577,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="B29" s="21" t="s">
         <v>67</v>
       </c>
@@ -7576,10 +7585,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="B31" s="21"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>99</v>
       </c>
@@ -7592,7 +7601,7 @@
       <c r="D32" s="69"/>
       <c r="E32" s="68"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="B33" s="62" t="s">
         <v>105</v>
       </c>
@@ -7602,7 +7611,7 @@
       <c r="D33" s="69"/>
       <c r="E33" s="69"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="B34" s="62" t="s">
         <v>106</v>
       </c>
@@ -7611,7 +7620,7 @@
       </c>
       <c r="D34" s="69"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="B35" s="62" t="s">
         <v>107</v>
       </c>
@@ -7620,17 +7629,17 @@
       </c>
       <c r="D35" s="36"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="B36" s="62"/>
       <c r="C36" s="71"/>
       <c r="D36" s="69"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="B37" s="62"/>
       <c r="C37" s="71"/>
       <c r="D37" s="69"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>199</v>
       </c>
@@ -7644,7 +7653,7 @@
       <c r="D38" s="69"/>
       <c r="E38" s="68"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="62" t="s">
         <v>105</v>
       </c>
@@ -7655,7 +7664,7 @@
       <c r="D39" s="69"/>
       <c r="E39" s="69"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="B40" s="62" t="s">
         <v>106</v>
       </c>
@@ -7665,7 +7674,7 @@
       </c>
       <c r="D40" s="69"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="B41" s="62" t="s">
         <v>107</v>
       </c>
@@ -7675,16 +7684,16 @@
       </c>
       <c r="D41" s="69"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="B42" s="62"/>
       <c r="C42" s="29"/>
       <c r="D42" s="69"/>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="B43" s="27"/>
       <c r="C43" s="29"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>198</v>
       </c>
@@ -7696,7 +7705,7 @@
         <v>1102416.4304987811</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="62" t="s">
         <v>109</v>
       </c>
@@ -7705,7 +7714,7 @@
         <v>1932662.074533775</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="62" t="s">
         <v>110</v>
       </c>
@@ -7714,7 +7723,7 @@
         <v>596097.88660695858</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="62" t="s">
         <v>111</v>
       </c>
@@ -7723,7 +7732,7 @@
         <v>46122.435348534098</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>97</v>
       </c>
@@ -7734,7 +7743,7 @@
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="B51" s="62" t="s">
         <v>109</v>
       </c>
@@ -7742,7 +7751,7 @@
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="B52" s="62" t="s">
         <v>110</v>
       </c>
@@ -7750,7 +7759,7 @@
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="B53" s="62" t="s">
         <v>111</v>
       </c>
@@ -7758,7 +7767,7 @@
         <v>1.2542476833820825E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="7"/>
     </row>
   </sheetData>
@@ -7779,14 +7788,14 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>153</v>
       </c>
@@ -7803,7 +7812,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="50" t="s">
         <v>154</v>
       </c>
@@ -7814,7 +7823,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="53"/>
       <c r="B3" s="100" t="s">
         <v>6</v>
@@ -7825,7 +7834,7 @@
       </c>
       <c r="E3" s="55"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="53"/>
       <c r="B4" s="100" t="s">
         <v>7</v>
@@ -7836,7 +7845,7 @@
       </c>
       <c r="E4" s="55"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="53"/>
       <c r="B5" s="101" t="s">
         <v>8</v>
@@ -7847,7 +7856,7 @@
       </c>
       <c r="E5" s="55"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="53"/>
       <c r="B6" s="101" t="s">
         <v>9</v>
@@ -7858,7 +7867,7 @@
       </c>
       <c r="E6" s="55"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="56"/>
       <c r="B7" s="57" t="s">
         <v>92</v>
@@ -7867,7 +7876,7 @@
       <c r="D7" s="58"/>
       <c r="E7" s="59"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="50" t="s">
         <v>155</v>
       </c>
@@ -7878,7 +7887,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="53"/>
       <c r="B10" s="100" t="s">
         <v>6</v>
@@ -7887,7 +7896,7 @@
       <c r="D10" s="100"/>
       <c r="E10" s="55"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="53"/>
       <c r="B11" s="100" t="s">
         <v>7</v>
@@ -7896,7 +7905,7 @@
       <c r="D11" s="100"/>
       <c r="E11" s="55"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="53"/>
       <c r="B12" s="101" t="s">
         <v>8</v>
@@ -7905,7 +7914,7 @@
       <c r="D12" s="101"/>
       <c r="E12" s="55"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="53"/>
       <c r="B13" s="101" t="s">
         <v>9</v>
@@ -7914,7 +7923,7 @@
       <c r="D13" s="101"/>
       <c r="E13" s="55"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="56"/>
       <c r="B14" s="57" t="s">
         <v>92</v>
@@ -7923,7 +7932,7 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="50" t="s">
         <v>156</v>
       </c>
@@ -7934,7 +7943,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="53"/>
       <c r="B17" s="100" t="s">
         <v>6</v>
@@ -7943,7 +7952,7 @@
       <c r="D17" s="100"/>
       <c r="E17" s="55"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="53"/>
       <c r="B18" s="100" t="s">
         <v>7</v>
@@ -7952,7 +7961,7 @@
       <c r="D18" s="100"/>
       <c r="E18" s="55"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="53"/>
       <c r="B19" s="101" t="s">
         <v>8</v>
@@ -7961,7 +7970,7 @@
       <c r="D19" s="101"/>
       <c r="E19" s="55"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="53"/>
       <c r="B20" s="101" t="s">
         <v>9</v>
@@ -7970,7 +7979,7 @@
       <c r="D20" s="101"/>
       <c r="E20" s="55"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="56"/>
       <c r="B21" s="57" t="s">
         <v>92</v>
@@ -7997,12 +8006,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>174</v>
       </c>
@@ -8019,7 +8028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -8037,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -8052,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -8067,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -8082,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8097,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
         <v>176</v>
       </c>
@@ -8115,7 +8124,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -8130,7 +8139,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -8145,7 +8154,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -8160,7 +8169,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -8192,13 +8201,13 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -8206,7 +8215,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="98" t="s">
         <v>53</v>
       </c>
@@ -8214,25 +8223,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="99" t="s">
         <v>256</v>
       </c>
       <c r="B3" s="98"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B4" s="98"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="98"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>270</v>
       </c>
@@ -8240,175 +8249,175 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="98" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="98"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="98"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="98"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="98"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="98" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="98"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="98" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="98"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="98" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="98"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="98" t="s">
         <v>126</v>
       </c>
       <c r="B14" s="98"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="98" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="98"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="98" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="98"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="98" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="98"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="98" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="98"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B19" s="98"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="98" t="s">
         <v>122</v>
       </c>
       <c r="B20" s="98"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="98" t="s">
         <v>115</v>
       </c>
       <c r="B21" s="98"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="98" t="s">
         <v>123</v>
       </c>
       <c r="B22" s="98"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="98" t="s">
         <v>113</v>
       </c>
       <c r="B23" s="98"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="98" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="98"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="98" t="s">
         <v>112</v>
       </c>
       <c r="B25" s="98"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="98"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B27" s="98"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="98"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="98"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B30" s="98"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B31" s="98"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="98" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="98"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="98" t="s">
         <v>131</v>
       </c>
       <c r="B33" s="98"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="98" t="s">
         <v>251</v>
       </c>
       <c r="B34" s="98"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>120</v>
       </c>
@@ -8416,7 +8425,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
@@ -8424,7 +8433,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>129</v>
       </c>
@@ -8432,25 +8441,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="98"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B39" s="98"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B40" s="98"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>145</v>
       </c>
@@ -8458,7 +8467,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
@@ -8466,7 +8475,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="98" t="s">
         <v>250</v>
       </c>
@@ -8474,7 +8483,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="98" t="s">
         <v>249</v>
       </c>
@@ -8482,49 +8491,49 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="98" t="s">
         <v>248</v>
       </c>
       <c r="B45" s="98"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="98" t="s">
         <v>246</v>
       </c>
       <c r="B46" s="98"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="98" t="s">
         <v>247</v>
       </c>
       <c r="B47" s="98"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="98" t="s">
         <v>252</v>
       </c>
       <c r="B48" s="98"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B49" s="98"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="111" t="s">
         <v>154</v>
       </c>
       <c r="B50" s="98"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="111" t="s">
         <v>155</v>
       </c>
       <c r="B51" s="98"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="111" t="s">
         <v>156</v>
       </c>
@@ -8547,14 +8556,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
@@ -8565,68 +8574,68 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14">
       <c r="A4" s="41" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="9" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="9" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="9" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="9" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -8635,13 +8644,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -8650,13 +8659,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -8665,13 +8674,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -8680,13 +8689,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -8695,13 +8704,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -8710,13 +8719,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -8725,13 +8734,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -8740,7 +8749,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -8752,38 +8761,38 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="4" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -8792,14 +8801,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="21" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="4" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -8808,13 +8817,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="4" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="4" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -8823,7 +8832,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="4" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -8832,7 +8841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="4" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -8844,82 +8853,82 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="4" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="4" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -8943,13 +8952,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
@@ -8957,7 +8966,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -8966,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
@@ -8975,7 +8984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
@@ -8984,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
@@ -8993,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
@@ -9002,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
@@ -9011,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
@@ -9020,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
@@ -9029,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
@@ -9038,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
@@ -9047,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -9056,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
@@ -9065,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -9074,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
@@ -9083,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -9092,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
@@ -9101,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -9110,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
@@ -9119,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -9128,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
@@ -9137,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -9146,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
@@ -9155,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -9164,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
@@ -9173,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -9182,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -9191,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
@@ -9200,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -9209,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
@@ -9218,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
@@ -9227,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
@@ -9236,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -9245,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
@@ -9254,7 +9263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -9263,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
@@ -9272,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -9281,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -9290,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -9299,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
@@ -9308,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
@@ -9317,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
@@ -9326,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
@@ -9335,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
@@ -9344,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
@@ -9353,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
@@ -9362,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
@@ -9371,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
@@ -9380,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
@@ -9389,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
@@ -9398,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
@@ -9407,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -9429,17 +9438,17 @@
   </sheetPr>
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
@@ -9512,7 +9521,7 @@
       <c r="X1" s="72"/>
       <c r="Y1" s="72"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25">
       <c r="A2" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -9522,7 +9531,7 @@
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25">
       <c r="A3" t="str">
         <f>A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -9532,7 +9541,7 @@
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25">
       <c r="A4" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
@@ -9542,7 +9551,7 @@
       </c>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25">
       <c r="A5" t="str">
         <f>A4</f>
         <v>Birth age program</v>
@@ -9552,7 +9561,7 @@
       </c>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25">
       <c r="A6" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
@@ -9562,7 +9571,7 @@
       </c>
       <c r="C6" s="25"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25">
       <c r="A7" t="str">
         <f>A6</f>
         <v>Calcium supplementation</v>
@@ -9572,7 +9581,7 @@
       </c>
       <c r="C7" s="25"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25">
       <c r="A8" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
@@ -9582,7 +9591,7 @@
       </c>
       <c r="C8" s="25"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25">
       <c r="A9" t="str">
         <f>A8</f>
         <v>Cash transfers</v>
@@ -9592,7 +9601,7 @@
       </c>
       <c r="C9" s="25"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25">
       <c r="A10" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
@@ -9602,7 +9611,7 @@
       </c>
       <c r="C10" s="25"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25">
       <c r="A11" t="str">
         <f>A10</f>
         <v>Delayed cord clamping</v>
@@ -9612,7 +9621,7 @@
       </c>
       <c r="C11" s="25"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25">
       <c r="A12" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
@@ -9622,7 +9631,7 @@
       </c>
       <c r="C12" s="25"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25">
       <c r="A13" t="str">
         <f>A12</f>
         <v>Family Planning</v>
@@ -9632,7 +9641,7 @@
       </c>
       <c r="C13" s="25"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25">
       <c r="A14" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
@@ -9642,7 +9651,7 @@
       </c>
       <c r="C14" s="25"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25">
       <c r="A15" t="str">
         <f>A14</f>
         <v>IFA fortification of maize</v>
@@ -9652,7 +9661,7 @@
       </c>
       <c r="C15" s="25"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25">
       <c r="A16" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
@@ -9662,7 +9671,7 @@
       </c>
       <c r="C16" s="25"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="str">
         <f>A16</f>
         <v>IFA fortification of rice</v>
@@ -9672,7 +9681,7 @@
       </c>
       <c r="C17" s="25"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
@@ -9682,7 +9691,7 @@
       </c>
       <c r="C18" s="25"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="str">
         <f>A18</f>
         <v>IFA fortification of wheat flour</v>
@@ -9692,7 +9701,7 @@
       </c>
       <c r="C19" s="25"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
@@ -9702,7 +9711,7 @@
       </c>
       <c r="C20" s="25"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="str">
         <f>A20</f>
         <v>IFAS not poor: community</v>
@@ -9712,7 +9721,7 @@
       </c>
       <c r="C21" s="25"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -9722,7 +9731,7 @@
       </c>
       <c r="C22" s="25"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" t="str">
         <f>A22</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -9732,7 +9741,7 @@
       </c>
       <c r="C23" s="25"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
@@ -9742,7 +9751,7 @@
       </c>
       <c r="C24" s="25"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" t="str">
         <f>A24</f>
         <v>IFAS not poor: hospital</v>
@@ -9752,7 +9761,7 @@
       </c>
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -9762,7 +9771,7 @@
       </c>
       <c r="C26" s="25"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" t="str">
         <f>A26</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -9772,7 +9781,7 @@
       </c>
       <c r="C27" s="25"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
@@ -9782,7 +9791,7 @@
       </c>
       <c r="C28" s="25"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="str">
         <f>A28</f>
         <v>IFAS not poor: retailer</v>
@@ -9792,7 +9801,7 @@
       </c>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -9802,7 +9811,7 @@
       </c>
       <c r="C30" s="25"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" t="str">
         <f>A30</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -9812,7 +9821,7 @@
       </c>
       <c r="C31" s="25"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
@@ -9822,7 +9831,7 @@
       </c>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="str">
         <f>A32</f>
         <v>IFAS not poor: school</v>
@@ -9832,7 +9841,7 @@
       </c>
       <c r="C33" s="25"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -9842,7 +9851,7 @@
       </c>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="str">
         <f>A34</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -9852,7 +9861,7 @@
       </c>
       <c r="C35" s="25"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
@@ -9862,7 +9871,7 @@
       </c>
       <c r="C36" s="25"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="str">
         <f>A36</f>
         <v>IFAS poor: community</v>
@@ -9872,7 +9881,7 @@
       </c>
       <c r="C37" s="25"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -9882,7 +9891,7 @@
       </c>
       <c r="C38" s="25"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="str">
         <f>A38</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -9892,7 +9901,7 @@
       </c>
       <c r="C39" s="25"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
@@ -9902,7 +9911,7 @@
       </c>
       <c r="C40" s="25"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="str">
         <f>A40</f>
         <v>IFAS poor: hospital</v>
@@ -9912,7 +9921,7 @@
       </c>
       <c r="C41" s="25"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -9922,7 +9931,7 @@
       </c>
       <c r="C42" s="25"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="str">
         <f>A42</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -9932,7 +9941,7 @@
       </c>
       <c r="C43" s="25"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
@@ -9942,7 +9951,7 @@
       </c>
       <c r="C44" s="25"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="str">
         <f>A44</f>
         <v>IFAS poor: school</v>
@@ -9952,7 +9961,7 @@
       </c>
       <c r="C45" s="25"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -9962,7 +9971,7 @@
       </c>
       <c r="C46" s="25"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="str">
         <f>A46</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -9972,7 +9981,7 @@
       </c>
       <c r="C47" s="25"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
@@ -9982,7 +9991,7 @@
       </c>
       <c r="C48" s="25"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" t="str">
         <f>A48</f>
         <v>IPTp</v>
@@ -9992,7 +10001,7 @@
       </c>
       <c r="C49" s="25"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -10002,7 +10011,7 @@
       </c>
       <c r="C50" s="25"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" t="str">
         <f>A50</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -10012,7 +10021,7 @@
       </c>
       <c r="C51" s="25"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -10022,7 +10031,7 @@
       </c>
       <c r="C52" s="25"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" t="str">
         <f>A52</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -10032,7 +10041,7 @@
       </c>
       <c r="C53" s="25"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
@@ -10042,7 +10051,7 @@
       </c>
       <c r="C54" s="25"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" t="str">
         <f>A54</f>
         <v>Iron and iodine fortification of salt</v>
@@ -10052,7 +10061,7 @@
       </c>
       <c r="C55" s="25"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -10062,7 +10071,7 @@
       </c>
       <c r="C56" s="25"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" t="str">
         <f>A56</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -10072,7 +10081,7 @@
       </c>
       <c r="C57" s="25"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
@@ -10082,7 +10091,7 @@
       </c>
       <c r="C58" s="25"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" t="str">
         <f>A58</f>
         <v>Mg for eclampsia</v>
@@ -10092,7 +10101,7 @@
       </c>
       <c r="C59" s="25"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
@@ -10102,7 +10111,7 @@
       </c>
       <c r="C60" s="25"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" t="str">
         <f>A60</f>
         <v>Mg for pre-eclampsia</v>
@@ -10112,7 +10121,7 @@
       </c>
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
@@ -10122,7 +10131,7 @@
       </c>
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" t="str">
         <f>A62</f>
         <v>Multiple micronutrient supplementation</v>
@@ -10132,7 +10141,7 @@
       </c>
       <c r="C63" s="25"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -10142,7 +10151,7 @@
       </c>
       <c r="C64" s="25"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" t="str">
         <f>A64</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -10152,7 +10161,7 @@
       </c>
       <c r="C65" s="25"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
@@ -10162,7 +10171,7 @@
       </c>
       <c r="C66" s="25"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" t="str">
         <f>A66</f>
         <v>Oral rehydration salts</v>
@@ -10172,7 +10181,7 @@
       </c>
       <c r="C67" s="25"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -10182,7 +10191,7 @@
       </c>
       <c r="C68" s="25"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" t="str">
         <f>A68</f>
         <v>Public provision of complementary foods</v>
@@ -10197,7 +10206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
@@ -10207,7 +10216,7 @@
       </c>
       <c r="C70" s="25"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71" t="str">
         <f>A70</f>
         <v>Public provision of complementary foods with iron</v>
@@ -10217,7 +10226,7 @@
       </c>
       <c r="C71" s="25"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -10227,7 +10236,7 @@
       </c>
       <c r="C72" s="25"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" t="str">
         <f>A72</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -10237,7 +10246,7 @@
       </c>
       <c r="C73" s="25"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -10247,7 +10256,7 @@
       </c>
       <c r="C74" s="25"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75" t="str">
         <f>A74</f>
         <v>Sprinkles</v>
@@ -10257,7 +10266,7 @@
       </c>
       <c r="C75" s="25"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -10267,7 +10276,7 @@
       </c>
       <c r="C76" s="25"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77" t="str">
         <f>A76</f>
         <v>Sprinkles (malaria area)</v>
@@ -10277,7 +10286,7 @@
       </c>
       <c r="C77" s="25"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
@@ -10287,7 +10296,7 @@
       </c>
       <c r="C78" s="25"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" t="str">
         <f>A78</f>
         <v>Treatment of MAM</v>
@@ -10297,7 +10306,7 @@
       </c>
       <c r="C79" s="25"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
@@ -10307,7 +10316,7 @@
       </c>
       <c r="C80" s="25"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81" t="str">
         <f>A80</f>
         <v>Treatment of SAM</v>
@@ -10320,7 +10329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
@@ -10330,7 +10339,7 @@
       </c>
       <c r="C82" s="25"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83" t="str">
         <f>A82</f>
         <v>Vitamin A supplementation</v>
@@ -10340,7 +10349,7 @@
       </c>
       <c r="C83" s="25"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
@@ -10350,7 +10359,7 @@
       </c>
       <c r="C84" s="25"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" t="str">
         <f>A84</f>
         <v>WASH: Handwashing</v>
@@ -10360,7 +10369,7 @@
       </c>
       <c r="C85" s="25"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
@@ -10370,7 +10379,7 @@
       </c>
       <c r="C86" s="25"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87" t="str">
         <f>A86</f>
         <v>WASH: Hygenic disposal</v>
@@ -10380,7 +10389,7 @@
       </c>
       <c r="C87" s="25"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
@@ -10390,7 +10399,7 @@
       </c>
       <c r="C88" s="25"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89" t="str">
         <f>A88</f>
         <v>WASH: Improved sanitation</v>
@@ -10400,7 +10409,7 @@
       </c>
       <c r="C89" s="25"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
@@ -10410,7 +10419,7 @@
       </c>
       <c r="C90" s="25"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91" t="str">
         <f>A90</f>
         <v>WASH: Improved water source</v>
@@ -10420,7 +10429,7 @@
       </c>
       <c r="C91" s="25"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
@@ -10430,7 +10439,7 @@
       </c>
       <c r="C92" s="25"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93" t="str">
         <f>A92</f>
         <v>WASH: Piped water</v>
@@ -10440,7 +10449,7 @@
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
@@ -10450,7 +10459,7 @@
       </c>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95" t="str">
         <f>A94</f>
         <v>Zinc for treatment + ORS</v>
@@ -10460,7 +10469,7 @@
       </c>
       <c r="C95" s="25"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
@@ -10470,7 +10479,7 @@
       </c>
       <c r="C96" s="25"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" t="str">
         <f>A96</f>
         <v>Zinc supplementation</v>
@@ -10480,7 +10489,7 @@
       </c>
       <c r="C97" s="25"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
@@ -10490,7 +10499,7 @@
       </c>
       <c r="C98" s="25"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 1</v>
@@ -10500,7 +10509,7 @@
       </c>
       <c r="C99" s="25"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
@@ -10510,7 +10519,7 @@
       </c>
       <c r="C100" s="25"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 2</v>
@@ -10520,7 +10529,7 @@
       </c>
       <c r="C101" s="25"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -10530,7 +10539,7 @@
       </c>
       <c r="C102" s="25"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3">
       <c r="A103" t="str">
         <f>A102</f>
         <v>IYCF 3</v>
@@ -10557,53 +10566,53 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="98" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="98" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>247</v>
       </c>
@@ -10625,7 +10634,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -10633,7 +10642,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -10647,7 +10656,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="98" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -10662,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="98" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
@@ -10678,7 +10687,7 @@
       </c>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="98" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
@@ -10694,7 +10703,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="98" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
@@ -10710,7 +10719,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="98" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
@@ -10726,7 +10735,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="98" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
@@ -10742,7 +10751,7 @@
       </c>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="98" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
@@ -10758,7 +10767,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="98" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
@@ -10774,7 +10783,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="98" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
@@ -10790,7 +10799,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="98" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
@@ -10805,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="98" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -10820,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="98" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
@@ -10835,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="98" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -10850,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="98" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
@@ -10865,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="98" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -10880,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="98" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
@@ -10895,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="98" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -10910,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="98" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
@@ -10925,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="98" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -10940,7 +10949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="98" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
@@ -10955,7 +10964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="98" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -10970,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="98" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
@@ -10985,7 +10994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="98" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -11000,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="98" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
@@ -11015,7 +11024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="98" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -11031,7 +11040,7 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="98" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -11047,7 +11056,7 @@
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="98" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
@@ -11063,7 +11072,7 @@
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="98" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -11078,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="98" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
@@ -11093,7 +11102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="98" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
@@ -11108,7 +11117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="98" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
@@ -11124,7 +11133,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="98" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -11140,7 +11149,7 @@
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="98" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
@@ -11156,7 +11165,7 @@
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="98" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -11172,7 +11181,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="98" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
@@ -11188,7 +11197,7 @@
       </c>
       <c r="E36" s="21"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="98" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -11204,7 +11213,7 @@
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="98" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -11220,7 +11229,7 @@
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="98" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -11236,7 +11245,7 @@
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="98" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
@@ -11251,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="98" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
@@ -11266,7 +11275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="98" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
@@ -11281,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="98" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
@@ -11296,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="98" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
@@ -11311,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="98" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
@@ -11326,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="98" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
@@ -11341,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="98" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
@@ -11356,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="98" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
@@ -11371,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="98" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
@@ -11386,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
@@ -11401,7 +11410,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="98" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
@@ -11416,7 +11425,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="98" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -11451,14 +11460,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.5" style="137" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="137" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="139" t="s">
         <v>261</v>
       </c>
@@ -11466,7 +11475,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="139" t="s">
         <v>264</v>
       </c>
@@ -11474,7 +11483,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="139" t="s">
         <v>265</v>
       </c>
@@ -11498,12 +11507,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>183</v>
       </c>
@@ -11511,7 +11520,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -11519,7 +11528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11527,7 +11536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11539,7 +11548,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -11551,7 +11560,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11575,7 +11584,7 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -11583,7 +11592,7 @@
     <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11616,7 +11625,7 @@
       </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -11653,7 +11662,7 @@
       </c>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -11690,7 +11699,7 @@
       </c>
       <c r="K3" s="30"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -11727,7 +11736,7 @@
       </c>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -11764,7 +11773,7 @@
       </c>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -11801,7 +11810,7 @@
       </c>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -11838,7 +11847,7 @@
       </c>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -11875,7 +11884,7 @@
       </c>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -11912,7 +11921,7 @@
       </c>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -11949,7 +11958,7 @@
       </c>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>2026</v>
       </c>
@@ -11986,7 +11995,7 @@
       </c>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>2027</v>
       </c>
@@ -12023,7 +12032,7 @@
       </c>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>2028</v>
       </c>
@@ -12060,7 +12069,7 @@
       </c>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>2029</v>
       </c>
@@ -12097,7 +12106,7 @@
       </c>
       <c r="K14" s="30"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>2030</v>
       </c>
@@ -12152,14 +12161,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>149</v>
       </c>
@@ -12185,7 +12194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
@@ -12211,7 +12220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="B3" s="141"/>
       <c r="C3" t="s">
         <v>147</v>
@@ -12233,7 +12242,7 @@
       </c>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="141"/>
       <c r="C4" t="s">
         <v>157</v>
@@ -12255,7 +12264,7 @@
       </c>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="141" t="s">
         <v>6</v>
       </c>
@@ -12278,7 +12287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="141"/>
       <c r="C6" t="s">
         <v>147</v>
@@ -12299,7 +12308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="B7" s="141"/>
       <c r="C7" t="s">
         <v>157</v>
@@ -12320,7 +12329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="141" t="s">
         <v>7</v>
       </c>
@@ -12343,7 +12352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="B9" s="141"/>
       <c r="C9" t="s">
         <v>147</v>
@@ -12364,7 +12373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="B10" s="141"/>
       <c r="C10" t="s">
         <v>157</v>
@@ -12385,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="B11" s="141" t="s">
         <v>8</v>
       </c>
@@ -12408,7 +12417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="B12" s="141"/>
       <c r="C12" t="s">
         <v>147</v>
@@ -12429,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="B13" s="141"/>
       <c r="C13" t="s">
         <v>157</v>
@@ -12450,7 +12459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="B14" s="141" t="s">
         <v>9</v>
       </c>
@@ -12473,7 +12482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="B15" s="141"/>
       <c r="C15" t="s">
         <v>147</v>
@@ -12494,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="B16" s="141"/>
       <c r="C16" t="s">
         <v>157</v>
@@ -12515,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="B17" s="44" t="s">
         <v>92</v>
       </c>
@@ -12538,14 +12547,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="110" t="s">
         <v>151</v>
       </c>
@@ -12571,7 +12580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="B20" s="141"/>
       <c r="C20" t="s">
         <v>147</v>
@@ -12592,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="B21" s="141"/>
       <c r="C21" t="s">
         <v>157</v>
@@ -12613,7 +12622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="B22" s="141" t="s">
         <v>6</v>
       </c>
@@ -12636,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="B23" s="141"/>
       <c r="C23" t="s">
         <v>147</v>
@@ -12657,7 +12666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="B24" s="141"/>
       <c r="C24" t="s">
         <v>157</v>
@@ -12678,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="B25" s="141" t="s">
         <v>7</v>
       </c>
@@ -12701,7 +12710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="B26" s="141"/>
       <c r="C26" t="s">
         <v>147</v>
@@ -12722,7 +12731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="B27" s="141"/>
       <c r="C27" t="s">
         <v>157</v>
@@ -12743,7 +12752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="B28" s="141" t="s">
         <v>8</v>
       </c>
@@ -12766,7 +12775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="B29" s="141"/>
       <c r="C29" t="s">
         <v>147</v>
@@ -12787,7 +12796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="B30" s="141"/>
       <c r="C30" t="s">
         <v>157</v>
@@ -12808,7 +12817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="B31" s="141" t="s">
         <v>9</v>
       </c>
@@ -12831,7 +12840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="B32" s="141"/>
       <c r="C32" t="s">
         <v>147</v>
@@ -12852,7 +12861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="B33" s="141"/>
       <c r="C33" t="s">
         <v>157</v>
@@ -12873,7 +12882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="B34" s="39" t="s">
         <v>92</v>
       </c>
@@ -12896,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="7" t="s">
         <v>180</v>
       </c>
@@ -12922,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="B37" s="141"/>
       <c r="C37" t="s">
         <v>147</v>
@@ -12943,7 +12952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="B38" s="141"/>
       <c r="C38" t="s">
         <v>157</v>
@@ -12964,7 +12973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="B39" s="141" t="s">
         <v>6</v>
       </c>
@@ -12987,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="B40" s="141"/>
       <c r="C40" t="s">
         <v>147</v>
@@ -13008,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="B41" s="141"/>
       <c r="C41" t="s">
         <v>157</v>
@@ -13029,7 +13038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="B42" s="141" t="s">
         <v>7</v>
       </c>
@@ -13052,7 +13061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="B43" s="141"/>
       <c r="C43" t="s">
         <v>147</v>
@@ -13073,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="B44" s="141"/>
       <c r="C44" t="s">
         <v>157</v>
@@ -13094,7 +13103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="B45" s="141" t="s">
         <v>8</v>
       </c>
@@ -13118,7 +13127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="B46" s="141"/>
       <c r="C46" t="s">
         <v>147</v>
@@ -13140,7 +13149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="B47" s="141"/>
       <c r="C47" t="s">
         <v>157</v>
@@ -13161,7 +13170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="B48" s="141" t="s">
         <v>9</v>
       </c>
@@ -13185,7 +13194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8">
       <c r="B49" s="141"/>
       <c r="C49" t="s">
         <v>147</v>
@@ -13207,7 +13216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8">
       <c r="B50" s="141"/>
       <c r="C50" t="s">
         <v>157</v>
@@ -13228,7 +13237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8">
       <c r="B51" s="45" t="s">
         <v>92</v>
       </c>
@@ -13253,6 +13262,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -13263,11 +13277,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13285,7 +13294,7 @@
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -13297,7 +13306,7 @@
     <col min="13" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -13347,7 +13356,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -13397,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
@@ -13441,7 +13450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
@@ -13485,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
@@ -13529,7 +13538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -13576,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
@@ -13620,7 +13629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
@@ -13664,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
@@ -13708,7 +13717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -13755,7 +13764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
@@ -13799,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
@@ -13843,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
@@ -13887,7 +13896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -13934,7 +13943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
@@ -13978,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14022,7 +14031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
@@ -14066,7 +14075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -14113,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -14157,7 +14166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
@@ -14201,7 +14210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
@@ -14245,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -14260,7 +14269,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -14275,7 +14284,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -14325,7 +14334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
@@ -14369,7 +14378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="C26" s="4" t="s">
         <v>140</v>
       </c>
@@ -14413,7 +14422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="C27" s="4" t="s">
         <v>141</v>
       </c>
@@ -14457,7 +14466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -14504,7 +14513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
@@ -14548,7 +14557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="C30" s="4" t="s">
         <v>140</v>
       </c>
@@ -14592,7 +14601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="C31" s="4" t="s">
         <v>141</v>
       </c>
@@ -14636,7 +14645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -14683,7 +14692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16">
       <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
@@ -14727,7 +14736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16">
       <c r="C34" s="4" t="s">
         <v>140</v>
       </c>
@@ -14771,7 +14780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16">
       <c r="C35" s="4" t="s">
         <v>141</v>
       </c>
@@ -14815,7 +14824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -14862,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16">
       <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
@@ -14906,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16">
       <c r="C38" s="4" t="s">
         <v>140</v>
       </c>
@@ -14950,7 +14959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16">
       <c r="C39" s="4" t="s">
         <v>141</v>
       </c>
@@ -14994,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16">
       <c r="B40" t="s">
         <v>35</v>
       </c>
@@ -15041,7 +15050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16">
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -15085,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16">
       <c r="C42" s="4" t="s">
         <v>140</v>
       </c>
@@ -15129,7 +15138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16">
       <c r="C43" s="4" t="s">
         <v>141</v>
       </c>
@@ -15173,7 +15182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16">
       <c r="C44" s="4"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -15189,7 +15198,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -15204,7 +15213,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16">
       <c r="A46" s="7" t="s">
         <v>194</v>
       </c>
@@ -15254,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16">
       <c r="C47" s="4" t="s">
         <v>197</v>
       </c>
@@ -15298,7 +15307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16">
       <c r="B48" t="s">
         <v>28</v>
       </c>
@@ -15345,7 +15354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16">
       <c r="C49" s="4" t="s">
         <v>197</v>
       </c>
@@ -15389,7 +15398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -15436,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16">
       <c r="C51" s="4" t="s">
         <v>197</v>
       </c>
@@ -15480,7 +15489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16">
       <c r="B52" t="s">
         <v>31</v>
       </c>
@@ -15527,7 +15536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16">
       <c r="C53" s="4" t="s">
         <v>197</v>
       </c>
@@ -15571,7 +15580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16">
       <c r="B54" t="s">
         <v>35</v>
       </c>
@@ -15618,7 +15627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16">
       <c r="C55" s="4" t="s">
         <v>197</v>
       </c>
@@ -15662,7 +15671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
         <v>79</v>
@@ -15710,7 +15719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16">
       <c r="C57" s="4" t="s">
         <v>197</v>
       </c>
@@ -15754,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16">
       <c r="B58" t="s">
         <v>80</v>
       </c>
@@ -15801,7 +15810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16">
       <c r="C59" s="4" t="s">
         <v>197</v>
       </c>
@@ -15845,7 +15854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16">
       <c r="B60" t="s">
         <v>81</v>
       </c>
@@ -15892,7 +15901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16">
       <c r="C61" s="4" t="s">
         <v>197</v>
       </c>
@@ -15936,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16">
       <c r="C62" s="4"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -15952,7 +15961,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -15967,7 +15976,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -16017,7 +16026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:16">
       <c r="C65" s="4" t="s">
         <v>38</v>
       </c>
@@ -16061,7 +16070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:16">
       <c r="C66" s="4" t="s">
         <v>39</v>
       </c>
@@ -16105,7 +16114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:16">
       <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
@@ -16149,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:16">
       <c r="B68" t="s">
         <v>15</v>
       </c>
@@ -16196,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:16">
       <c r="C69" s="4" t="s">
         <v>38</v>
       </c>
@@ -16240,7 +16249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:16">
       <c r="C70" s="4" t="s">
         <v>39</v>
       </c>
@@ -16284,7 +16293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:16">
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
@@ -16328,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:16">
       <c r="B72" t="s">
         <v>16</v>
       </c>
@@ -16375,7 +16384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:16">
       <c r="C73" s="4" t="s">
         <v>38</v>
       </c>
@@ -16419,7 +16428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:16">
       <c r="C74" s="4" t="s">
         <v>39</v>
       </c>
@@ -16463,7 +16472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:16">
       <c r="C75" s="4" t="s">
         <v>40</v>
       </c>
@@ -16507,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:16">
       <c r="B76" t="s">
         <v>21</v>
       </c>
@@ -16554,7 +16563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:16">
       <c r="C77" s="4" t="s">
         <v>38</v>
       </c>
@@ -16598,7 +16607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:16">
       <c r="C78" s="4" t="s">
         <v>39</v>
       </c>
@@ -16642,7 +16651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:16">
       <c r="C79" s="4" t="s">
         <v>40</v>
       </c>
@@ -16686,7 +16695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:16">
       <c r="B80" t="s">
         <v>203</v>
       </c>
@@ -16733,7 +16742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16">
       <c r="C81" s="4" t="s">
         <v>38</v>
       </c>
@@ -16777,7 +16786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16">
       <c r="C82" s="4" t="s">
         <v>39</v>
       </c>
@@ -16821,7 +16830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16">
       <c r="C83" s="4" t="s">
         <v>40</v>
       </c>
@@ -16865,7 +16874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16">
       <c r="B84" t="s">
         <v>28</v>
       </c>
@@ -16912,7 +16921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16">
       <c r="C85" s="4" t="s">
         <v>38</v>
       </c>
@@ -16956,7 +16965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16">
       <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
@@ -17000,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16">
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
@@ -17044,7 +17053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16">
       <c r="B88" t="s">
         <v>29</v>
       </c>
@@ -17091,7 +17100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16">
       <c r="C89" s="4" t="s">
         <v>38</v>
       </c>
@@ -17135,7 +17144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16">
       <c r="C90" s="4" t="s">
         <v>39</v>
       </c>
@@ -17179,7 +17188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16">
       <c r="C91" s="4" t="s">
         <v>40</v>
       </c>
@@ -17223,7 +17232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16">
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -17238,7 +17247,7 @@
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16">
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -17253,7 +17262,7 @@
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16">
       <c r="A94" s="7" t="s">
         <v>204</v>
       </c>
@@ -17303,7 +17312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16">
       <c r="C95" s="4" t="s">
         <v>38</v>
       </c>
@@ -17347,7 +17356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16">
       <c r="C96" s="4" t="s">
         <v>39</v>
       </c>
@@ -17391,7 +17400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16">
       <c r="C97" s="4" t="s">
         <v>40</v>
       </c>
@@ -17435,7 +17444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16">
       <c r="A100" s="7"/>
     </row>
   </sheetData>
@@ -17455,7 +17464,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" customWidth="1"/>
@@ -17465,7 +17474,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
@@ -17488,7 +17497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>182</v>
       </c>
@@ -17509,10 +17518,10 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>209</v>
       </c>
@@ -17535,7 +17544,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>173</v>
       </c>
@@ -17558,7 +17567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
@@ -17578,7 +17587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8" s="4" t="s">
         <v>103</v>
       </c>
@@ -17598,7 +17607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="4" t="s">
         <v>98</v>
       </c>
@@ -17618,7 +17627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
@@ -17638,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -17646,7 +17655,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>243</v>
       </c>
@@ -17669,7 +17678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="B13" s="9" t="s">
         <v>52</v>
       </c>
@@ -17689,7 +17698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="9" t="s">
         <v>120</v>
       </c>
@@ -17709,7 +17718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="9" t="s">
         <v>72</v>
       </c>
@@ -17729,7 +17738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="B16" s="9" t="s">
         <v>129</v>
       </c>
@@ -17749,7 +17758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>142</v>
       </c>
@@ -17772,7 +17781,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>143</v>
       </c>
@@ -17795,7 +17804,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>208</v>
       </c>
@@ -17836,14 +17845,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -17863,7 +17872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -17883,7 +17892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -17900,7 +17909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -17920,7 +17929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -17937,7 +17946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -17957,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -17974,7 +17983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -17994,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -18011,7 +18020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -18031,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -18048,7 +18057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -18068,7 +18077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -18085,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>75</v>
       </c>
@@ -18105,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="B15" t="s">
         <v>51</v>
       </c>
@@ -18140,7 +18149,7 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
@@ -18152,7 +18161,7 @@
     <col min="12" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
@@ -18199,7 +18208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="7" t="s">
         <v>191</v>
       </c>
@@ -18246,7 +18255,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="B3" s="9" t="s">
         <v>132</v>
       </c>
@@ -18290,7 +18299,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -18334,7 +18343,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -18378,7 +18387,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>112</v>
       </c>
@@ -18422,7 +18431,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>113</v>
       </c>
@@ -18466,7 +18475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -18510,7 +18519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
         <v>115</v>
       </c>
@@ -18554,7 +18563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -18598,7 +18607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>117</v>
       </c>
@@ -18642,7 +18651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>118</v>
       </c>
@@ -18686,7 +18695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
         <v>119</v>
       </c>
@@ -18730,7 +18739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
         <v>121</v>
       </c>
@@ -18774,7 +18783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>122</v>
       </c>
@@ -18818,7 +18827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>123</v>
       </c>
@@ -18862,7 +18871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="B17" t="s">
         <v>124</v>
       </c>
@@ -18906,7 +18915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>125</v>
       </c>
@@ -18950,7 +18959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="B19" t="s">
         <v>126</v>
       </c>
@@ -18994,7 +19003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="B20" t="s">
         <v>127</v>
       </c>
@@ -19038,7 +19047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="B21" s="4" t="s">
         <v>72</v>
       </c>
@@ -19082,7 +19091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="14" customHeight="1">
       <c r="B22" s="4" t="s">
         <v>129</v>
       </c>
@@ -19126,7 +19135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="B23" s="8" t="s">
         <v>71</v>
       </c>
@@ -19170,7 +19179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="B24" s="8" t="s">
         <v>130</v>
       </c>
@@ -19214,7 +19223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="B25" s="8" t="s">
         <v>75</v>
       </c>
@@ -19258,7 +19267,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="B26" s="8" t="s">
         <v>270</v>
       </c>
@@ -19302,7 +19311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" s="7" t="s">
         <v>192</v>
       </c>
@@ -19349,7 +19358,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="B29" s="9" t="s">
         <v>137</v>
       </c>
@@ -19393,7 +19402,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="B30" s="9" t="s">
         <v>138</v>
       </c>
@@ -19437,7 +19446,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="B31" s="9" t="s">
         <v>139</v>
       </c>
@@ -19481,16 +19490,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -19511,13 +19520,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
@@ -19540,7 +19549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>244</v>
       </c>
@@ -19563,7 +19572,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>245</v>
       </c>
@@ -19602,7 +19611,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -19613,7 +19622,7 @@
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -19639,7 +19648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -19665,7 +19674,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>60</v>
       </c>
@@ -19688,7 +19697,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -19713,7 +19722,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="B5" s="33" t="s">
         <v>206</v>
@@ -19737,7 +19746,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>120</v>
       </c>
@@ -19763,7 +19772,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
@@ -19785,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>140</v>
       </c>
@@ -19808,7 +19817,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
@@ -19830,7 +19839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
@@ -19856,7 +19865,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -19878,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>140</v>
       </c>
@@ -19901,7 +19910,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
@@ -19923,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
@@ -19949,7 +19958,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
@@ -19971,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>140</v>
       </c>
@@ -19994,7 +20003,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="C17" s="4" t="s">
         <v>61</v>
       </c>
@@ -20016,7 +20025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -20042,7 +20051,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
@@ -20063,7 +20072,7 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>140</v>
       </c>
@@ -20087,7 +20096,7 @@
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="C21" s="4" t="s">
         <v>61</v>
       </c>
@@ -20108,7 +20117,7 @@
       </c>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>137</v>
       </c>
@@ -20135,7 +20144,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="9"/>
       <c r="C23" t="s">
         <v>60</v>
@@ -20157,7 +20166,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>138</v>
       </c>
@@ -20183,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="9"/>
       <c r="C25" t="s">
         <v>60</v>
@@ -20204,7 +20213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>139</v>
       </c>
@@ -20230,7 +20239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="C27" t="s">
         <v>60</v>
       </c>
@@ -20250,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -20276,7 +20285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="C29" t="s">
         <v>60</v>
       </c>
@@ -20296,7 +20305,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>61</v>
@@ -20317,7 +20326,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -20343,7 +20352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="C32" t="s">
         <v>60</v>
       </c>
@@ -20363,7 +20372,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
@@ -20384,7 +20393,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -20410,7 +20419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="C35" t="s">
         <v>60</v>
       </c>
@@ -20430,7 +20439,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>61</v>
@@ -20451,7 +20460,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -20477,7 +20486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="C38" t="s">
         <v>60</v>
       </c>
@@ -20497,7 +20506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
         <v>61</v>
@@ -20518,7 +20527,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>250</v>
       </c>
@@ -20544,7 +20553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="C41" t="s">
         <v>60</v>
       </c>
@@ -20564,7 +20573,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
         <v>61</v>
@@ -20585,7 +20594,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -20611,7 +20620,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="C44" t="s">
         <v>60</v>
       </c>
@@ -20631,7 +20640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="C45" s="4" t="s">
         <v>61</v>
       </c>
@@ -20651,7 +20660,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="B46" s="4" t="s">
         <v>28</v>
       </c>
@@ -20674,7 +20683,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="C47" t="s">
         <v>60</v>
       </c>
@@ -20694,7 +20703,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="C48" s="4" t="s">
         <v>61</v>
       </c>
@@ -20714,7 +20723,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>251</v>
       </c>
@@ -20740,7 +20749,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="C50" t="s">
         <v>60</v>
       </c>
@@ -20760,7 +20769,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -20786,7 +20795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="C52" t="s">
         <v>60</v>
       </c>
@@ -20824,14 +20833,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>168</v>
       </c>
@@ -20848,7 +20857,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="42" t="s">
         <v>159</v>
       </c>
@@ -20866,7 +20875,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3" s="42" t="s">
         <v>160</v>
       </c>
@@ -20884,7 +20893,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="42" t="s">
         <v>161</v>
       </c>
@@ -20902,7 +20911,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="42" t="s">
         <v>164</v>
       </c>
@@ -20920,7 +20929,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="42" t="s">
         <v>165</v>
       </c>
@@ -20938,7 +20947,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="42" t="s">
         <v>162</v>
       </c>
@@ -20956,7 +20965,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="42" t="s">
         <v>163</v>
       </c>
@@ -20974,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="42" t="s">
         <v>166</v>
       </c>
@@ -20992,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="42" t="s">
         <v>167</v>
       </c>
@@ -21010,7 +21019,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="C11" s="8"/>
     </row>
   </sheetData>
@@ -21031,7 +21040,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
@@ -21039,7 +21048,7 @@
     <col min="4" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -21063,7 +21072,7 @@
       </c>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>253</v>
       </c>
@@ -21087,7 +21096,7 @@
       </c>
       <c r="H2" s="88"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>60</v>
       </c>
@@ -21105,7 +21114,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>254</v>
       </c>
@@ -21129,7 +21138,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>60</v>
@@ -21148,7 +21157,7 @@
       </c>
       <c r="H5" s="88"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>255</v>
       </c>
@@ -21172,7 +21181,7 @@
       </c>
       <c r="H6" s="88"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="8"/>
       <c r="C7" t="s">
         <v>60</v>
@@ -21207,7 +21216,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -21216,7 +21225,7 @@
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="65">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -21234,7 +21243,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -21255,7 +21264,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" s="54" t="s">
         <v>49</v>
       </c>
@@ -21287,14 +21296,14 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>263</v>
       </c>
@@ -21329,7 +21338,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -21373,7 +21382,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -21414,7 +21423,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
@@ -21455,7 +21464,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -21496,7 +21505,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -21537,7 +21546,7 @@
         <v>0.41400000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -21549,7 +21558,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
@@ -21558,7 +21567,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -21567,7 +21576,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -21576,7 +21585,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
@@ -21585,7 +21594,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>194</v>
       </c>
@@ -21597,7 +21606,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
@@ -21606,7 +21615,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
@@ -21615,7 +21624,7 @@
         <v>0.31079999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
@@ -21624,7 +21633,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
@@ -21633,7 +21642,7 @@
         <v>0.17934</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="B19" s="7" t="s">
         <v>108</v>
       </c>
@@ -21642,7 +21651,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="B20" s="7" t="s">
         <v>109</v>
       </c>
@@ -21651,7 +21660,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="B21" s="7" t="s">
         <v>110</v>
       </c>
@@ -21660,7 +21669,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="B22" s="7" t="s">
         <v>111</v>
       </c>
@@ -21669,7 +21678,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="B23" s="7" t="s">
         <v>104</v>
       </c>
@@ -21678,7 +21687,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="B24" s="7" t="s">
         <v>105</v>
       </c>
@@ -21687,7 +21696,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="B25" s="7" t="s">
         <v>106</v>
       </c>
@@ -21696,7 +21705,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="B26" s="7" t="s">
         <v>107</v>
       </c>
@@ -21705,7 +21714,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -21713,22 +21722,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="B30" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="B31" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
@@ -21746,10 +21755,10 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
@@ -21761,7 +21770,7 @@
     <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
@@ -21808,7 +21817,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>69</v>
       </c>
@@ -21855,7 +21864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
@@ -21899,7 +21908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>120</v>
       </c>
@@ -21945,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
@@ -21991,7 +22000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>129</v>
       </c>
@@ -22037,7 +22046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -22084,7 +22093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>130</v>
       </c>
@@ -22131,7 +22140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>136</v>
       </c>
@@ -22179,7 +22188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -22223,7 +22232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -22267,7 +22276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>270</v>
       </c>
@@ -22311,7 +22320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
@@ -22362,7 +22371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>128</v>
@@ -22411,7 +22420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" t="s">
         <v>131</v>
       </c>
@@ -22459,7 +22468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
@@ -22507,7 +22516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>132</v>
       </c>
@@ -22555,7 +22564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="B19" t="s">
         <v>112</v>
       </c>
@@ -22603,7 +22612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
@@ -22651,7 +22660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" t="s">
         <v>114</v>
       </c>
@@ -22699,7 +22708,7 @@
         <v>0.2268</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" t="s">
         <v>115</v>
       </c>
@@ -22747,7 +22756,7 @@
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="B24" t="s">
         <v>116</v>
       </c>
@@ -22792,7 +22801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" t="s">
         <v>117</v>
       </c>
@@ -22840,7 +22849,7 @@
         <v>0.28224000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" t="s">
         <v>118</v>
       </c>
@@ -22888,7 +22897,7 @@
         <v>0.12096000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" t="s">
         <v>119</v>
       </c>
@@ -22936,7 +22945,7 @@
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>121</v>
@@ -22982,7 +22991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="B29" t="s">
         <v>122</v>
       </c>
@@ -23030,7 +23039,7 @@
         <v>2.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" t="s">
         <v>123</v>
       </c>
@@ -23078,7 +23087,7 @@
         <v>1.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" t="s">
         <v>124</v>
       </c>
@@ -23123,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" t="s">
         <v>125</v>
       </c>
@@ -23171,7 +23180,7 @@
         <v>3.1359999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" t="s">
         <v>126</v>
       </c>
@@ -23219,7 +23228,7 @@
         <v>1.3440000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" t="s">
         <v>127</v>
       </c>
@@ -23267,7 +23276,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" t="s">
         <v>178</v>
       </c>
@@ -23315,7 +23324,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>256</v>
       </c>
@@ -23363,7 +23372,7 @@
         <v>0.91590132125078794</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="B37" s="9"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -23373,7 +23382,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
@@ -23420,7 +23429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" t="s">
         <v>247</v>
       </c>
@@ -23464,7 +23473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -23508,7 +23517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -23552,7 +23561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -23596,7 +23605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -23640,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -23684,7 +23693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
       <c r="B45" s="4" t="s">
         <v>253</v>
       </c>
@@ -23728,7 +23737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="B46" s="4" t="s">
         <v>254</v>
       </c>
@@ -23772,7 +23781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1">
       <c r="B47" s="4" t="s">
         <v>255</v>
       </c>
@@ -23816,7 +23825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="9" t="s">
         <v>75</v>
@@ -23874,7 +23883,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="B49" s="9" t="s">
         <v>137</v>
       </c>
@@ -23929,7 +23938,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="B50" s="9" t="s">
         <v>138</v>
       </c>
@@ -23984,7 +23993,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="B51" s="9" t="s">
         <v>139</v>
       </c>
@@ -24039,7 +24048,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" ht="15" customHeight="1">
       <c r="B52" s="4" t="s">
         <v>91</v>
       </c>
@@ -24098,10 +24107,10 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
@@ -24113,7 +24122,7 @@
     <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
@@ -24160,7 +24169,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>69</v>
       </c>
@@ -24207,7 +24216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
@@ -24251,7 +24260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>120</v>
       </c>
@@ -24295,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
@@ -24339,7 +24348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>129</v>
       </c>
@@ -24383,7 +24392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -24427,7 +24436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>130</v>
       </c>
@@ -24471,7 +24480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>136</v>
       </c>
@@ -24515,7 +24524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -24559,7 +24568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -24603,7 +24612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>270</v>
       </c>
@@ -24647,7 +24656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="C13" s="94"/>
       <c r="D13" s="94"/>
       <c r="E13" s="94"/>
@@ -24662,7 +24671,7 @@
       <c r="N13" s="94"/>
       <c r="O13" s="94"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
@@ -24709,7 +24718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>128</v>
@@ -24754,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" t="s">
         <v>131</v>
       </c>
@@ -24798,7 +24807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
@@ -24842,7 +24851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>132</v>
       </c>
@@ -24886,7 +24895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="16" customHeight="1">
       <c r="B19" t="s">
         <v>112</v>
       </c>
@@ -24930,7 +24939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="16" customHeight="1">
       <c r="B20" t="s">
         <v>154</v>
       </c>
@@ -24974,7 +24983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" t="s">
         <v>155</v>
       </c>
@@ -25018,7 +25027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" t="s">
         <v>156</v>
       </c>
@@ -25062,7 +25071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -25077,7 +25086,7 @@
       <c r="N23" s="94"/>
       <c r="O23" s="94"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
@@ -25124,7 +25133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" t="s">
         <v>114</v>
       </c>
@@ -25168,7 +25177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" t="s">
         <v>115</v>
       </c>
@@ -25212,7 +25221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" t="s">
         <v>116</v>
       </c>
@@ -25256,7 +25265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" t="s">
         <v>117</v>
       </c>
@@ -25300,7 +25309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="B29" t="s">
         <v>118</v>
       </c>
@@ -25344,7 +25353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -25388,7 +25397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>121</v>
@@ -25433,7 +25442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" t="s">
         <v>122</v>
       </c>
@@ -25477,7 +25486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" t="s">
         <v>123</v>
       </c>
@@ -25521,7 +25530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" t="s">
         <v>124</v>
       </c>
@@ -25565,7 +25574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" t="s">
         <v>125</v>
       </c>
@@ -25609,7 +25618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" t="s">
         <v>126</v>
       </c>
@@ -25653,7 +25662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="B37" t="s">
         <v>127</v>
       </c>
@@ -25697,7 +25706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="B38" t="s">
         <v>178</v>
       </c>
@@ -25741,7 +25750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" s="8" t="s">
         <v>256</v>
       </c>
@@ -25785,7 +25794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="B40" s="9"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -25801,7 +25810,7 @@
       <c r="N40" s="94"/>
       <c r="O40" s="94"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>76</v>
       </c>
@@ -25848,7 +25857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="B42" t="s">
         <v>247</v>
       </c>
@@ -25892,7 +25901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
       <c r="B43" t="s">
         <v>248</v>
       </c>
@@ -25936,7 +25945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
       <c r="B44" t="s">
         <v>249</v>
       </c>
@@ -25980,7 +25989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
       <c r="B45" t="s">
         <v>250</v>
       </c>
@@ -26024,7 +26033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="B46" t="s">
         <v>251</v>
       </c>
@@ -26068,7 +26077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1">
       <c r="B47" t="s">
         <v>252</v>
       </c>
@@ -26112,7 +26121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
       <c r="B48" s="4" t="s">
         <v>253</v>
       </c>
@@ -26156,7 +26165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1">
       <c r="B49" s="4" t="s">
         <v>254</v>
       </c>
@@ -26200,7 +26209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1">
       <c r="B50" s="4" t="s">
         <v>255</v>
       </c>
@@ -26244,7 +26253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" ht="15.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
         <v>75</v>
@@ -26289,7 +26298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="B52" s="9" t="s">
         <v>137</v>
       </c>
@@ -26333,7 +26342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="B53" s="9" t="s">
         <v>138</v>
       </c>
@@ -26377,7 +26386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="B54" s="9" t="s">
         <v>139</v>
       </c>
@@ -26421,7 +26430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="B55" s="4" t="s">
         <v>91</v>
       </c>
@@ -26478,10 +26487,10 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A1:K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -26496,7 +26505,7 @@
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
@@ -26531,7 +26540,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -26540,7 +26549,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
@@ -26549,7 +26558,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
@@ -26558,7 +26567,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
@@ -26567,7 +26576,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
@@ -26576,7 +26585,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
@@ -26585,7 +26594,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
@@ -26597,7 +26606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
@@ -26609,7 +26618,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
@@ -26621,7 +26630,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
@@ -26630,7 +26639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -26639,7 +26648,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
@@ -26648,7 +26657,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -26657,7 +26666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
@@ -26666,7 +26675,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -26675,7 +26684,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
@@ -26684,7 +26693,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -26693,7 +26702,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
@@ -26702,7 +26711,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -26711,7 +26720,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
@@ -26720,7 +26729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -26729,7 +26738,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
@@ -26738,7 +26747,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -26747,7 +26756,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
@@ -26762,7 +26771,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -26774,7 +26783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -26786,7 +26795,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
@@ -26795,7 +26804,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -26807,7 +26816,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
@@ -26816,7 +26825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
@@ -26825,7 +26834,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
@@ -26837,7 +26846,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -26849,7 +26858,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
@@ -26858,7 +26867,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -26870,7 +26879,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
@@ -26885,7 +26894,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -26900,7 +26909,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -26909,7 +26918,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -26918,7 +26927,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
@@ -26927,7 +26936,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
@@ -26936,7 +26945,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
@@ -26948,7 +26957,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
@@ -26960,7 +26969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
@@ -26972,7 +26981,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
@@ -26984,7 +26993,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
@@ -26996,7 +27005,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
@@ -27008,7 +27017,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
@@ -27017,7 +27026,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
@@ -27032,7 +27041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
@@ -27044,7 +27053,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
@@ -27056,7 +27065,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -27081,10 +27090,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="B2" sqref="B2:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -27099,7 +27108,7 @@
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -27134,7 +27143,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -27163,7 +27172,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -27192,7 +27201,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -27221,7 +27230,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -27250,7 +27259,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -27279,7 +27288,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>108</v>
       </c>
@@ -27294,7 +27303,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>109</v>
       </c>
@@ -27309,7 +27318,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>110</v>
       </c>
@@ -27324,7 +27333,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>111</v>
       </c>
@@ -27339,7 +27348,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>104</v>
       </c>
@@ -27347,7 +27356,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>105</v>
       </c>
@@ -27355,7 +27364,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>106</v>
       </c>
@@ -27363,7 +27372,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>107</v>
       </c>
@@ -27387,12 +27396,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -27424,7 +27433,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>207</v>
       </c>
@@ -27456,7 +27465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -27488,7 +27497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -27520,7 +27529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -27552,7 +27561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -27584,7 +27593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -27616,7 +27625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
@@ -27648,7 +27657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -27680,7 +27689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>203</v>
       </c>
@@ -27713,7 +27722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>206</v>
       </c>
@@ -27745,7 +27754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
@@ -27777,7 +27786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -27809,7 +27818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -27841,7 +27850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
@@ -27873,7 +27882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -27905,7 +27914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -27937,7 +27946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -27969,7 +27978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -28001,7 +28010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -28033,7 +28042,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>80</v>
       </c>
@@ -28065,7 +28074,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>81</v>
       </c>
@@ -28097,7 +28106,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>82</v>
       </c>
@@ -28129,7 +28138,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>83</v>
       </c>
@@ -28161,7 +28170,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>84</v>
       </c>
@@ -28193,7 +28202,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>85</v>
       </c>
@@ -28225,7 +28234,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>86</v>
       </c>
@@ -28257,7 +28266,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>87</v>
       </c>
@@ -28311,9 +28320,9 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -28333,7 +28342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>203</v>
       </c>
@@ -28353,7 +28362,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -28373,7 +28382,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -28393,7 +28402,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>140</v>
       </c>
@@ -28418,7 +28427,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -28461,7 +28470,7 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
@@ -28473,7 +28482,7 @@
     <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -28520,7 +28529,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="7" t="s">
         <v>194</v>
       </c>
@@ -28580,7 +28589,7 @@
         <v>0.7762</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>197</v>
       </c>
@@ -28637,7 +28646,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -28654,7 +28663,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>188</v>
       </c>
@@ -28701,7 +28710,7 @@
         <v>0.43469999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>189</v>
       </c>
@@ -28748,7 +28757,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="110" t="s">
         <v>190</v>
       </c>
@@ -28795,7 +28804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="E10">
         <f t="shared" ref="E10:O10" si="2">0.42*E5</f>
         <v>0.31079999999999997</v>
@@ -28859,9 +28868,9 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -28884,7 +28893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -28912,7 +28921,7 @@
         <v>0.2168920625348294</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>23</v>
@@ -28938,7 +28947,7 @@
         <v>0.36910793746517057</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>25</v>
@@ -28959,7 +28968,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>26</v>
@@ -28980,21 +28989,21 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="C7" s="67"/>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -29022,7 +29031,7 @@
         <v>0.55784394006702964</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
@@ -29047,7 +29056,7 @@
         <v>0.31615605993297041</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>140</v>
       </c>
@@ -29067,7 +29076,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>141</v>
       </c>
@@ -29087,21 +29096,21 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -29124,7 +29133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -29144,7 +29153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
@@ -29164,7 +29173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -29184,10 +29193,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="4"/>
     </row>
   </sheetData>
@@ -29209,14 +29218,14 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>220</v>
       </c>
@@ -29227,7 +29236,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="39">
       <c r="A2" s="73" t="s">
         <v>223</v>
       </c>
@@ -29238,7 +29247,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="52">
       <c r="B3" s="74" t="s">
         <v>225</v>
       </c>
@@ -29246,7 +29255,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="52">
       <c r="B4" s="74" t="s">
         <v>226</v>
       </c>
@@ -29254,7 +29263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="39">
       <c r="B5" s="76" t="s">
         <v>227</v>
       </c>
@@ -29262,7 +29271,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="52">
       <c r="B6" s="76" t="s">
         <v>228</v>
       </c>
@@ -29270,7 +29279,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="52">
       <c r="B7" s="76" t="s">
         <v>229</v>
       </c>
@@ -29278,7 +29287,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="26">
       <c r="B8" s="77" t="s">
         <v>230</v>
       </c>
@@ -29286,7 +29295,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="52">
       <c r="B9" s="77" t="s">
         <v>231</v>
       </c>
@@ -29294,7 +29303,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="52">
       <c r="B10" s="77" t="s">
         <v>232</v>
       </c>
@@ -29302,10 +29311,10 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="C11" s="75"/>
     </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="26">
       <c r="A12" s="73" t="s">
         <v>233</v>
       </c>
@@ -29316,7 +29325,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="26">
       <c r="B13" s="78" t="s">
         <v>235</v>
       </c>
@@ -29324,7 +29333,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="26">
       <c r="B14" s="78" t="s">
         <v>236</v>
       </c>
@@ -29332,7 +29341,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="26">
       <c r="B15" s="78" t="s">
         <v>237</v>
       </c>
@@ -29353,11 +29362,11 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
@@ -29367,7 +29376,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>95</v>
       </c>
@@ -29387,7 +29396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -29408,21 +29417,21 @@
         <v>3.1128200000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7"/>
       <c r="C3" s="63"/>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="C4" s="63"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>186</v>
       </c>
@@ -29440,7 +29449,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" t="s">
         <v>201</v>
       </c>
@@ -29457,7 +29466,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" t="s">
         <v>140</v>
       </c>
@@ -29474,7 +29483,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="B8" t="s">
         <v>141</v>
       </c>
@@ -29491,18 +29500,18 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="B10" s="7"/>
       <c r="C10" s="20"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
@@ -29522,7 +29531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -29539,7 +29548,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -29556,7 +29565,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -29573,7 +29582,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -29590,7 +29599,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -29607,7 +29616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
@@ -29624,7 +29633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -29641,10 +29650,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>238</v>
       </c>
@@ -29665,7 +29674,7 @@
       </c>
       <c r="G21" s="82"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="80" t="s">
         <v>225</v>
       </c>
@@ -29683,7 +29692,7 @@
       </c>
       <c r="G22" s="82"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="80" t="s">
         <v>226</v>
       </c>
@@ -29701,7 +29710,7 @@
       </c>
       <c r="G23" s="82"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="83" t="s">
         <v>227</v>
       </c>
@@ -29719,7 +29728,7 @@
       </c>
       <c r="G24" s="82"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="83" t="s">
         <v>228</v>
       </c>
@@ -29737,7 +29746,7 @@
       </c>
       <c r="G25" s="82"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="83" t="s">
         <v>229</v>
       </c>
@@ -29755,7 +29764,7 @@
       </c>
       <c r="G26" s="82"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="84" t="s">
         <v>230</v>
       </c>
@@ -29773,7 +29782,7 @@
       </c>
       <c r="G27" s="82"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="84" t="s">
         <v>231</v>
       </c>
@@ -29791,7 +29800,7 @@
       </c>
       <c r="G28" s="82"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="84" t="s">
         <v>232</v>
       </c>
@@ -29809,7 +29818,7 @@
       </c>
       <c r="G29" s="82"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="B30" s="86"/>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
@@ -29817,7 +29826,7 @@
       <c r="F30" s="81"/>
       <c r="G30" s="82"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="B31" s="7"/>
       <c r="C31" s="85"/>
       <c r="D31" s="85"/>
@@ -29825,7 +29834,7 @@
       <c r="F31" s="85"/>
       <c r="G31" s="82"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>239</v>
       </c>
@@ -29846,7 +29855,7 @@
       </c>
       <c r="G32" s="82"/>
     </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7" ht="15.75" customHeight="1">
       <c r="B33" s="86" t="s">
         <v>235</v>
       </c>
@@ -29864,7 +29873,7 @@
       </c>
       <c r="G33" s="82"/>
     </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7" ht="15.75" customHeight="1">
       <c r="B34" s="86" t="s">
         <v>236</v>
       </c>
@@ -29882,7 +29891,7 @@
       </c>
       <c r="G34" s="82"/>
     </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
       <c r="B35" s="86" t="s">
         <v>237</v>
       </c>

--- a/applications/master/data/national/InputForCode_Master.xlsx
+++ b/applications/master/data/national/InputForCode_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6DB52739-724D-1C4B-B7D9-53B0857B3234}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D3088DF2-DEA1-F24F-BA4B-4C3244B805AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3805,7 +3805,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7353,13 +7353,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>93</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>15204000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>3118117</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>3677298.8269880489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>63</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="21" t="s">
         <v>64</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>170</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>171</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>172</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>210</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13">
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>211</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>216</v>
       </c>
@@ -7478,15 +7478,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
       <c r="C15" s="37"/>
     </row>
-    <row r="16" spans="1:3" ht="13">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
       <c r="C16" s="37"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>102</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>100</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>101</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="98" t="s">
         <v>267</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="98" t="s">
         <v>268</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="98" t="s">
         <v>269</v>
       </c>
@@ -7538,11 +7538,11 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="21" t="s">
         <v>88</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="21" t="s">
         <v>89</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="21" t="s">
         <v>90</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="21" t="s">
         <v>67</v>
       </c>
@@ -7585,10 +7585,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="21"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>99</v>
       </c>
@@ -7601,7 +7601,7 @@
       <c r="D32" s="69"/>
       <c r="E32" s="68"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="62" t="s">
         <v>105</v>
       </c>
@@ -7611,7 +7611,7 @@
       <c r="D33" s="69"/>
       <c r="E33" s="69"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="62" t="s">
         <v>106</v>
       </c>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="D34" s="69"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="62" t="s">
         <v>107</v>
       </c>
@@ -7629,17 +7629,17 @@
       </c>
       <c r="D35" s="36"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="62"/>
       <c r="C36" s="71"/>
       <c r="D36" s="69"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="62"/>
       <c r="C37" s="71"/>
       <c r="D37" s="69"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>199</v>
       </c>
@@ -7653,7 +7653,7 @@
       <c r="D38" s="69"/>
       <c r="E38" s="68"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="62" t="s">
         <v>105</v>
       </c>
@@ -7664,7 +7664,7 @@
       <c r="D39" s="69"/>
       <c r="E39" s="69"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="62" t="s">
         <v>106</v>
       </c>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="D40" s="69"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="62" t="s">
         <v>107</v>
       </c>
@@ -7684,16 +7684,16 @@
       </c>
       <c r="D41" s="69"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="62"/>
       <c r="C42" s="29"/>
       <c r="D42" s="69"/>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="27"/>
       <c r="C43" s="29"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>198</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>1102416.4304987811</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="62" t="s">
         <v>109</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>1932662.074533775</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="62" t="s">
         <v>110</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>596097.88660695858</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="62" t="s">
         <v>111</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>46122.435348534098</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>97</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="62" t="s">
         <v>109</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="62" t="s">
         <v>110</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="62" t="s">
         <v>111</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1.2542476833820825E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
   </sheetData>
@@ -7788,14 +7788,14 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>153</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
         <v>154</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="53"/>
       <c r="B3" s="100" t="s">
         <v>6</v>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="E3" s="55"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="53"/>
       <c r="B4" s="100" t="s">
         <v>7</v>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="E4" s="55"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="53"/>
       <c r="B5" s="101" t="s">
         <v>8</v>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="E5" s="55"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="53"/>
       <c r="B6" s="101" t="s">
         <v>9</v>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="E6" s="55"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="56"/>
       <c r="B7" s="57" t="s">
         <v>92</v>
@@ -7876,7 +7876,7 @@
       <c r="D7" s="58"/>
       <c r="E7" s="59"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="50" t="s">
         <v>155</v>
       </c>
@@ -7887,7 +7887,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="53"/>
       <c r="B10" s="100" t="s">
         <v>6</v>
@@ -7896,7 +7896,7 @@
       <c r="D10" s="100"/>
       <c r="E10" s="55"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="53"/>
       <c r="B11" s="100" t="s">
         <v>7</v>
@@ -7905,7 +7905,7 @@
       <c r="D11" s="100"/>
       <c r="E11" s="55"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="53"/>
       <c r="B12" s="101" t="s">
         <v>8</v>
@@ -7914,7 +7914,7 @@
       <c r="D12" s="101"/>
       <c r="E12" s="55"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="53"/>
       <c r="B13" s="101" t="s">
         <v>9</v>
@@ -7923,7 +7923,7 @@
       <c r="D13" s="101"/>
       <c r="E13" s="55"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="56"/>
       <c r="B14" s="57" t="s">
         <v>92</v>
@@ -7932,7 +7932,7 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="50" t="s">
         <v>156</v>
       </c>
@@ -7943,7 +7943,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="53"/>
       <c r="B17" s="100" t="s">
         <v>6</v>
@@ -7952,7 +7952,7 @@
       <c r="D17" s="100"/>
       <c r="E17" s="55"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="53"/>
       <c r="B18" s="100" t="s">
         <v>7</v>
@@ -7961,7 +7961,7 @@
       <c r="D18" s="100"/>
       <c r="E18" s="55"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="53"/>
       <c r="B19" s="101" t="s">
         <v>8</v>
@@ -7970,7 +7970,7 @@
       <c r="D19" s="101"/>
       <c r="E19" s="55"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="53"/>
       <c r="B20" s="101" t="s">
         <v>9</v>
@@ -7979,7 +7979,7 @@
       <c r="D20" s="101"/>
       <c r="E20" s="55"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="56"/>
       <c r="B21" s="57" t="s">
         <v>92</v>
@@ -8006,12 +8006,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>174</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>176</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -8201,13 +8201,13 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="98" t="s">
         <v>53</v>
       </c>
@@ -8223,25 +8223,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="99" t="s">
         <v>256</v>
       </c>
       <c r="B3" s="98"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B4" s="98"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="98"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>270</v>
       </c>
@@ -8249,175 +8249,175 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="98" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="98"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="98"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="98"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="98"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="98"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="98"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="98" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="98"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="98" t="s">
         <v>126</v>
       </c>
       <c r="B14" s="98"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="98" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="98"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="98" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="98"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="98" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="98"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="98" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="98"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B19" s="98"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="98" t="s">
         <v>122</v>
       </c>
       <c r="B20" s="98"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="98" t="s">
         <v>115</v>
       </c>
       <c r="B21" s="98"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="s">
         <v>123</v>
       </c>
       <c r="B22" s="98"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="98" t="s">
         <v>113</v>
       </c>
       <c r="B23" s="98"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="98" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="98"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="98" t="s">
         <v>112</v>
       </c>
       <c r="B25" s="98"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="98"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B27" s="98"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="98"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="98"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B30" s="98"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B31" s="98"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="98" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="98"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="98" t="s">
         <v>131</v>
       </c>
       <c r="B33" s="98"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="98" t="s">
         <v>251</v>
       </c>
       <c r="B34" s="98"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>120</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>129</v>
       </c>
@@ -8441,25 +8441,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="98"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B39" s="98"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B40" s="98"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>145</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="98" t="s">
         <v>250</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="98" t="s">
         <v>249</v>
       </c>
@@ -8491,49 +8491,49 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="98" t="s">
         <v>248</v>
       </c>
       <c r="B45" s="98"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="98" t="s">
         <v>246</v>
       </c>
       <c r="B46" s="98"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="98" t="s">
         <v>247</v>
       </c>
       <c r="B47" s="98"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="98" t="s">
         <v>252</v>
       </c>
       <c r="B48" s="98"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B49" s="98"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="111" t="s">
         <v>154</v>
       </c>
       <c r="B50" s="98"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="111" t="s">
         <v>155</v>
       </c>
       <c r="B51" s="98"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="111" t="s">
         <v>156</v>
       </c>
@@ -8556,14 +8556,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
@@ -8574,68 +8574,68 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14">
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="41" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -8644,13 +8644,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -8659,13 +8659,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -8674,13 +8674,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -8689,13 +8689,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -8704,13 +8704,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -8719,13 +8719,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -8734,13 +8734,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -8749,7 +8749,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -8761,38 +8761,38 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -8801,14 +8801,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -8817,13 +8817,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -8832,7 +8832,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -8841,7 +8841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -8853,82 +8853,82 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -8952,13 +8952,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -8975,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
@@ -8984,7 +8984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
@@ -9002,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
@@ -9011,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
@@ -9029,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
@@ -9038,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
@@ -9047,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
@@ -9056,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
@@ -9110,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
@@ -9128,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -9137,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -9155,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
@@ -9164,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -9173,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
@@ -9182,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -9191,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
@@ -9209,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
@@ -9227,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
@@ -9245,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -9254,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -9272,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
@@ -9281,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -9290,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -9299,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -9308,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
@@ -9326,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
@@ -9335,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
@@ -9353,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
@@ -9371,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
@@ -9380,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
@@ -9398,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
@@ -9407,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
@@ -9416,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -9442,13 +9442,13 @@
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
@@ -9521,7 +9521,7 @@
       <c r="X1" s="72"/>
       <c r="Y1" s="72"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>A4</f>
         <v>Birth age program</v>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="C6" s="25"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>A6</f>
         <v>Calcium supplementation</v>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="C7" s="25"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="C8" s="25"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>A8</f>
         <v>Cash transfers</v>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="C9" s="25"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="C10" s="25"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>A10</f>
         <v>Delayed cord clamping</v>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="C11" s="25"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="C12" s="25"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>A12</f>
         <v>Family Planning</v>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="C13" s="25"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
@@ -9651,7 +9651,7 @@
       </c>
       <c r="C14" s="25"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>A14</f>
         <v>IFA fortification of maize</v>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="C15" s="25"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="C16" s="25"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>A16</f>
         <v>IFA fortification of rice</v>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="C17" s="25"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="C18" s="25"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>A18</f>
         <v>IFA fortification of wheat flour</v>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C19" s="25"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="C20" s="25"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>A20</f>
         <v>IFAS not poor: community</v>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="C21" s="25"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="C22" s="25"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>A22</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="C23" s="25"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="C24" s="25"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>A24</f>
         <v>IFAS not poor: hospital</v>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="C26" s="25"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>A26</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="C27" s="25"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="C28" s="25"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>A28</f>
         <v>IFAS not poor: retailer</v>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="C30" s="25"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>A30</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="C31" s="25"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>A32</f>
         <v>IFAS not poor: school</v>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="C33" s="25"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>A34</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="C35" s="25"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C36" s="25"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>A36</f>
         <v>IFAS poor: community</v>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="C37" s="25"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="C38" s="25"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>A38</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="C39" s="25"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="C40" s="25"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>A40</f>
         <v>IFAS poor: hospital</v>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="C41" s="25"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="C42" s="25"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>A42</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="C43" s="25"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="C44" s="25"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>A44</f>
         <v>IFAS poor: school</v>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="C45" s="25"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="C46" s="25"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>A46</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="C47" s="25"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="C48" s="25"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>A48</f>
         <v>IPTp</v>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="C49" s="25"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="C50" s="25"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>A50</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="C51" s="25"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="C52" s="25"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="str">
         <f>A52</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C53" s="25"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="C54" s="25"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="str">
         <f>A54</f>
         <v>Iron and iodine fortification of salt</v>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="C55" s="25"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="C56" s="25"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="str">
         <f>A56</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="C57" s="25"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="C58" s="25"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="str">
         <f>A58</f>
         <v>Mg for eclampsia</v>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="C59" s="25"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="C60" s="25"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="str">
         <f>A60</f>
         <v>Mg for pre-eclampsia</v>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="C61" s="25"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="C62" s="25"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="str">
         <f>A62</f>
         <v>Multiple micronutrient supplementation</v>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="C63" s="25"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="C64" s="25"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="str">
         <f>A64</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="C65" s="25"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="C66" s="25"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="str">
         <f>A66</f>
         <v>Oral rehydration salts</v>
@@ -10181,7 +10181,7 @@
       </c>
       <c r="C67" s="25"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="C68" s="25"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="str">
         <f>A68</f>
         <v>Public provision of complementary foods</v>
@@ -10206,7 +10206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C70" s="25"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="str">
         <f>A70</f>
         <v>Public provision of complementary foods with iron</v>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="C71" s="25"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="C72" s="25"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="str">
         <f>A72</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="C73" s="25"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="C74" s="25"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="str">
         <f>A74</f>
         <v>Sprinkles</v>
@@ -10266,7 +10266,7 @@
       </c>
       <c r="C75" s="25"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="C76" s="25"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="str">
         <f>A76</f>
         <v>Sprinkles (malaria area)</v>
@@ -10286,7 +10286,7 @@
       </c>
       <c r="C77" s="25"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C78" s="25"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="str">
         <f>A78</f>
         <v>Treatment of MAM</v>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="C79" s="25"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="C80" s="25"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="str">
         <f>A80</f>
         <v>Treatment of SAM</v>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="C82" s="25"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="str">
         <f>A82</f>
         <v>Vitamin A supplementation</v>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="C83" s="25"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="C84" s="25"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="str">
         <f>A84</f>
         <v>WASH: Handwashing</v>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="C85" s="25"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="C86" s="25"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="str">
         <f>A86</f>
         <v>WASH: Hygenic disposal</v>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="C87" s="25"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="C88" s="25"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="str">
         <f>A88</f>
         <v>WASH: Improved sanitation</v>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="C89" s="25"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="C90" s="25"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="str">
         <f>A90</f>
         <v>WASH: Improved water source</v>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="C91" s="25"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="C92" s="25"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="str">
         <f>A92</f>
         <v>WASH: Piped water</v>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="str">
         <f>A94</f>
         <v>Zinc for treatment + ORS</v>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="C95" s="25"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="C96" s="25"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>Zinc supplementation</v>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="C97" s="25"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="C98" s="25"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 1</v>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="C99" s="25"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="C100" s="25"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 2</v>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="C101" s="25"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="C102" s="25"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="str">
         <f>A102</f>
         <v>IYCF 3</v>
@@ -10566,53 +10566,53 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="98" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="98" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>247</v>
       </c>
@@ -10634,7 +10634,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -10642,7 +10642,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="98" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -10671,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="98" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="E3" s="47"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="98" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="98" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="98" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="98" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="98" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="98" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="98" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
@@ -10814,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -10829,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="98" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
@@ -10844,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="98" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -10859,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="98" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
@@ -10874,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="98" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -10889,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="98" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
@@ -10904,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="98" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="98" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="98" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -10949,7 +10949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="98" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
@@ -10964,7 +10964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -10979,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="98" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
@@ -10994,7 +10994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="98" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="98" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
@@ -11024,7 +11024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="98" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="98" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="98" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="98" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -11087,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="98" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="98" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
@@ -11117,7 +11117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="98" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="98" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="98" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="98" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="98" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="E36" s="21"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="98" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="98" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="98" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="98" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
@@ -11260,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="98" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
@@ -11275,7 +11275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="98" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
@@ -11290,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="98" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="98" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="98" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
@@ -11335,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="98" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
@@ -11350,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="98" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="98" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
@@ -11380,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="98" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="8" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
@@ -11410,7 +11410,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="98" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
@@ -11425,7 +11425,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="98" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -11460,14 +11460,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="137" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="137" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="139" t="s">
         <v>261</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="139" t="s">
         <v>264</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="139" t="s">
         <v>265</v>
       </c>
@@ -11507,12 +11507,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>183</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -11548,7 +11548,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -11560,7 +11560,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11584,7 +11584,7 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -11592,7 +11592,7 @@
     <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11625,7 +11625,7 @@
       </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="K3" s="30"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -11736,7 +11736,7 @@
       </c>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -11847,7 +11847,7 @@
       </c>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -11958,7 +11958,7 @@
       </c>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2026</v>
       </c>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>2027</v>
       </c>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>2028</v>
       </c>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>2029</v>
       </c>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="K14" s="30"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>2030</v>
       </c>
@@ -12161,14 +12161,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>149</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="141"/>
       <c r="C3" t="s">
         <v>147</v>
@@ -12242,7 +12242,7 @@
       </c>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="141"/>
       <c r="C4" t="s">
         <v>157</v>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
         <v>6</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="141"/>
       <c r="C6" t="s">
         <v>147</v>
@@ -12308,7 +12308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="141"/>
       <c r="C7" t="s">
         <v>157</v>
@@ -12329,7 +12329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>7</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="141"/>
       <c r="C9" t="s">
         <v>147</v>
@@ -12373,7 +12373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="141"/>
       <c r="C10" t="s">
         <v>157</v>
@@ -12394,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>8</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="141"/>
       <c r="C12" t="s">
         <v>147</v>
@@ -12438,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="141"/>
       <c r="C13" t="s">
         <v>157</v>
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="141" t="s">
         <v>9</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="141"/>
       <c r="C15" t="s">
         <v>147</v>
@@ -12503,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="141"/>
       <c r="C16" t="s">
         <v>157</v>
@@ -12524,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="44" t="s">
         <v>92</v>
       </c>
@@ -12547,14 +12547,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="110" t="s">
         <v>151</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="141"/>
       <c r="C20" t="s">
         <v>147</v>
@@ -12601,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="141"/>
       <c r="C21" t="s">
         <v>157</v>
@@ -12622,7 +12622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="141" t="s">
         <v>6</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="141"/>
       <c r="C23" t="s">
         <v>147</v>
@@ -12666,7 +12666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="141"/>
       <c r="C24" t="s">
         <v>157</v>
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="141" t="s">
         <v>7</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="141"/>
       <c r="C26" t="s">
         <v>147</v>
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="141"/>
       <c r="C27" t="s">
         <v>157</v>
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="141" t="s">
         <v>8</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="141"/>
       <c r="C29" t="s">
         <v>147</v>
@@ -12796,7 +12796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="141"/>
       <c r="C30" t="s">
         <v>157</v>
@@ -12817,7 +12817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" s="141" t="s">
         <v>9</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="141"/>
       <c r="C32" t="s">
         <v>147</v>
@@ -12861,7 +12861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="141"/>
       <c r="C33" t="s">
         <v>157</v>
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="39" t="s">
         <v>92</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>180</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="141"/>
       <c r="C37" t="s">
         <v>147</v>
@@ -12952,7 +12952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="141"/>
       <c r="C38" t="s">
         <v>157</v>
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B39" s="141" t="s">
         <v>6</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="141"/>
       <c r="C40" t="s">
         <v>147</v>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="141"/>
       <c r="C41" t="s">
         <v>157</v>
@@ -13038,7 +13038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B42" s="141" t="s">
         <v>7</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" s="141"/>
       <c r="C43" t="s">
         <v>147</v>
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="141"/>
       <c r="C44" t="s">
         <v>157</v>
@@ -13103,7 +13103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" s="141" t="s">
         <v>8</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="141"/>
       <c r="C46" t="s">
         <v>147</v>
@@ -13149,7 +13149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="141"/>
       <c r="C47" t="s">
         <v>157</v>
@@ -13170,7 +13170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B48" s="141" t="s">
         <v>9</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="141"/>
       <c r="C49" t="s">
         <v>147</v>
@@ -13216,7 +13216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="141"/>
       <c r="C50" t="s">
         <v>157</v>
@@ -13237,7 +13237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="45" t="s">
         <v>92</v>
       </c>
@@ -13262,11 +13262,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -13277,6 +13272,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13294,7 +13294,7 @@
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -13306,7 +13306,7 @@
     <col min="13" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -14269,7 +14269,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -14284,7 +14284,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
         <v>140</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
         <v>141</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
         <v>140</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>141</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
         <v>140</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
         <v>141</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
         <v>140</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
         <v>141</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>35</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
         <v>140</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
         <v>141</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C44" s="4"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -15198,7 +15198,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -15213,7 +15213,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>194</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
         <v>197</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>28</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
         <v>197</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>197</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>31</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
         <v>197</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>35</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
         <v>197</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
         <v>79</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
         <v>197</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>80</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
         <v>197</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>81</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>197</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C62" s="4"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -15961,7 +15961,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -15976,7 +15976,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C65" s="4" t="s">
         <v>38</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C66" s="4" t="s">
         <v>39</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>15</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C69" s="4" t="s">
         <v>38</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C70" s="4" t="s">
         <v>39</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>16</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C73" s="4" t="s">
         <v>38</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C74" s="4" t="s">
         <v>39</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:16">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C75" s="4" t="s">
         <v>40</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:16">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>21</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C77" s="4" t="s">
         <v>38</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C78" s="4" t="s">
         <v>39</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
         <v>40</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>203</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
         <v>38</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C82" s="4" t="s">
         <v>39</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C83" s="4" t="s">
         <v>40</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>28</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
         <v>38</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>29</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C89" s="4" t="s">
         <v>38</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C90" s="4" t="s">
         <v>39</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C91" s="4" t="s">
         <v>40</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -17247,7 +17247,7 @@
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -17262,7 +17262,7 @@
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>204</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C95" s="4" t="s">
         <v>38</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C96" s="4" t="s">
         <v>39</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C97" s="4" t="s">
         <v>40</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
     </row>
   </sheetData>
@@ -17464,7 +17464,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" customWidth="1"/>
@@ -17474,7 +17474,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>182</v>
       </c>
@@ -17518,10 +17518,10 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>209</v>
       </c>
@@ -17544,7 +17544,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>173</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>103</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>98</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -17655,7 +17655,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>243</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
         <v>52</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
         <v>120</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
         <v>72</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
         <v>129</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>142</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>143</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>208</v>
       </c>
@@ -17845,14 +17845,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>75</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>51</v>
       </c>
@@ -18149,7 +18149,7 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
@@ -18161,7 +18161,7 @@
     <col min="12" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" customHeight="1">
+    <row r="1" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>191</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>132</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>112</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>113</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>115</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>117</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>118</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>119</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>121</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>122</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>123</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>124</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>125</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>126</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>127</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>72</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1">
+    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>129</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="8" t="s">
         <v>71</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
         <v>130</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B25" s="8" t="s">
         <v>75</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B26" s="8" t="s">
         <v>270</v>
       </c>
@@ -19311,7 +19311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>192</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
         <v>137</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
         <v>138</v>
       </c>
@@ -19446,7 +19446,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B31" s="9" t="s">
         <v>139</v>
       </c>
@@ -19490,16 +19490,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
     </row>
   </sheetData>
@@ -19520,13 +19520,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>244</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>245</v>
       </c>
@@ -19611,7 +19611,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -19622,7 +19622,7 @@
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>60</v>
       </c>
@@ -19697,7 +19697,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -19722,7 +19722,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="33" t="s">
         <v>206</v>
@@ -19746,7 +19746,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>120</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>140</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
@@ -19839,7 +19839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>140</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>140</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>61</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
@@ -20072,7 +20072,7 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>140</v>
       </c>
@@ -20096,7 +20096,7 @@
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>61</v>
       </c>
@@ -20117,7 +20117,7 @@
       </c>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>137</v>
       </c>
@@ -20144,7 +20144,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="C23" t="s">
         <v>60</v>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>138</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="C25" t="s">
         <v>60</v>
@@ -20213,7 +20213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>139</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>60</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>60</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>61</v>
@@ -20326,7 +20326,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>60</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
         <v>61</v>
@@ -20393,7 +20393,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>60</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>61</v>
@@ -20460,7 +20460,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>60</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
         <v>61</v>
@@ -20527,7 +20527,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>250</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
         <v>60</v>
       </c>
@@ -20573,7 +20573,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
         <v>61</v>
@@ -20594,7 +20594,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>60</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="4" t="s">
         <v>61</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>28</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>60</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C48" s="4" t="s">
         <v>61</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>251</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
         <v>60</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>60</v>
       </c>
@@ -20833,14 +20833,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>168</v>
       </c>
@@ -20857,7 +20857,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>159</v>
       </c>
@@ -20875,7 +20875,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
         <v>160</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>161</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
         <v>164</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="42" t="s">
         <v>165</v>
       </c>
@@ -20947,7 +20947,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="42" t="s">
         <v>162</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="42" t="s">
         <v>163</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="42" t="s">
         <v>166</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="42" t="s">
         <v>167</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" s="8"/>
     </row>
   </sheetData>
@@ -21040,7 +21040,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
@@ -21048,7 +21048,7 @@
     <col min="4" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -21072,7 +21072,7 @@
       </c>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>253</v>
       </c>
@@ -21096,7 +21096,7 @@
       </c>
       <c r="H2" s="88"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>60</v>
       </c>
@@ -21114,7 +21114,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>254</v>
       </c>
@@ -21138,7 +21138,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>60</v>
@@ -21157,7 +21157,7 @@
       </c>
       <c r="H5" s="88"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>255</v>
       </c>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="H6" s="88"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="C7" t="s">
         <v>60</v>
@@ -21216,7 +21216,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -21225,7 +21225,7 @@
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="65">
+    <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -21243,7 +21243,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>256</v>
       </c>
@@ -21264,7 +21264,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="54" t="s">
         <v>49</v>
       </c>
@@ -21296,14 +21296,14 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>263</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -21546,7 +21546,7 @@
         <v>0.41400000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>194</v>
       </c>
@@ -21606,7 +21606,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
@@ -21615,7 +21615,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>0.31079999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>0.17934</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>108</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>109</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
         <v>110</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
         <v>111</v>
       </c>
@@ -21678,7 +21678,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
         <v>104</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
         <v>105</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
         <v>106</v>
       </c>
@@ -21705,7 +21705,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B26" s="7" t="s">
         <v>107</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
@@ -21722,22 +21722,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
@@ -21758,7 +21758,7 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
@@ -21770,7 +21770,7 @@
     <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>69</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
@@ -21908,7 +21908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>120</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>129</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>130</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>136</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -22232,7 +22232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>270</v>
       </c>
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>128</v>
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>131</v>
       </c>
@@ -22468,7 +22468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>132</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>112</v>
       </c>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>114</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v>0.2268</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>115</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>116</v>
       </c>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>117</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>0.28224000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>118</v>
       </c>
@@ -22897,7 +22897,7 @@
         <v>0.12096000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>119</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>121</v>
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>122</v>
       </c>
@@ -23039,7 +23039,7 @@
         <v>2.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>123</v>
       </c>
@@ -23087,7 +23087,7 @@
         <v>1.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>124</v>
       </c>
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>125</v>
       </c>
@@ -23180,7 +23180,7 @@
         <v>3.1359999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>126</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>1.3440000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>127</v>
       </c>
@@ -23276,7 +23276,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>178</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="33" t="s">
         <v>256</v>
       </c>
@@ -23372,7 +23372,7 @@
         <v>0.91590132125078794</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -23382,7 +23382,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>247</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>248</v>
       </c>
@@ -23517,7 +23517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>249</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>250</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>251</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>253</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>254</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>255</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="9" t="s">
         <v>75</v>
@@ -23883,7 +23883,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1">
+    <row r="49" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="9" t="s">
         <v>137</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="9" t="s">
         <v>138</v>
       </c>
@@ -23993,7 +23993,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1">
+    <row r="51" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="9" t="s">
         <v>139</v>
       </c>
@@ -24048,7 +24048,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="15" customHeight="1">
+    <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>91</v>
       </c>
@@ -24110,7 +24110,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
@@ -24122,7 +24122,7 @@
     <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>69</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>120</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>129</v>
       </c>
@@ -24392,7 +24392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -24436,7 +24436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>130</v>
       </c>
@@ -24480,7 +24480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>136</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>145</v>
       </c>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>270</v>
       </c>
@@ -24656,7 +24656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="94"/>
       <c r="D13" s="94"/>
       <c r="E13" s="94"/>
@@ -24671,7 +24671,7 @@
       <c r="N13" s="94"/>
       <c r="O13" s="94"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
@@ -24718,7 +24718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>128</v>
@@ -24763,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>131</v>
       </c>
@@ -24807,7 +24807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>132</v>
       </c>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16" customHeight="1">
+    <row r="19" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>112</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" customHeight="1">
+    <row r="20" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>154</v>
       </c>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>155</v>
       </c>
@@ -25027,7 +25027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>156</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -25086,7 +25086,7 @@
       <c r="N23" s="94"/>
       <c r="O23" s="94"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>114</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>115</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>116</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>117</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>118</v>
       </c>
@@ -25353,7 +25353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -25397,7 +25397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>121</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>122</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>123</v>
       </c>
@@ -25530,7 +25530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>124</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>125</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>126</v>
       </c>
@@ -25662,7 +25662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>127</v>
       </c>
@@ -25706,7 +25706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>178</v>
       </c>
@@ -25750,7 +25750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="8" t="s">
         <v>256</v>
       </c>
@@ -25794,7 +25794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -25810,7 +25810,7 @@
       <c r="N40" s="94"/>
       <c r="O40" s="94"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>76</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>247</v>
       </c>
@@ -25901,7 +25901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>248</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>249</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>250</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>251</v>
       </c>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>252</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>253</v>
       </c>
@@ -26165,7 +26165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>254</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>255</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1">
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
         <v>75</v>
@@ -26298,7 +26298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="9" t="s">
         <v>137</v>
       </c>
@@ -26342,7 +26342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="9" t="s">
         <v>138</v>
       </c>
@@ -26386,7 +26386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1">
+    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
         <v>139</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1">
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>91</v>
       </c>
@@ -26490,7 +26490,7 @@
       <selection activeCell="A2" sqref="A1:K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -26505,7 +26505,7 @@
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
@@ -26540,7 +26540,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
@@ -26549,7 +26549,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
@@ -26558,7 +26558,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
@@ -26567,7 +26567,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
@@ -26576,7 +26576,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Programs to include'!A6</f>
         <v>Delayed cord clamping</v>
@@ -26585,7 +26585,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>'Programs to include'!A7</f>
         <v>Family Planning</v>
@@ -26594,7 +26594,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
@@ -26606,7 +26606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of rice</v>
@@ -26618,7 +26618,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFA fortification of wheat flour</v>
@@ -26630,7 +26630,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community</v>
@@ -26639,7 +26639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -26648,7 +26648,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital</v>
@@ -26657,7 +26657,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -26666,7 +26666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer</v>
@@ -26675,7 +26675,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -26684,7 +26684,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school</v>
@@ -26693,7 +26693,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -26702,7 +26702,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community</v>
@@ -26711,7 +26711,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -26720,7 +26720,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital</v>
@@ -26729,7 +26729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -26738,7 +26738,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
@@ -26747,7 +26747,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A24</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -26756,7 +26756,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>'Programs to include'!A25</f>
         <v>IPTp</v>
@@ -26771,7 +26771,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -26783,7 +26783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -26795,7 +26795,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
@@ -26804,7 +26804,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -26816,7 +26816,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A30</f>
         <v>Mg for eclampsia</v>
@@ -26825,7 +26825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>'Programs to include'!A31</f>
         <v>Mg for pre-eclampsia</v>
@@ -26834,7 +26834,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation</v>
@@ -26846,7 +26846,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -26858,7 +26858,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
@@ -26867,7 +26867,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods</v>
@@ -26879,7 +26879,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron</v>
@@ -26894,7 +26894,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -26909,7 +26909,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A38</f>
         <v>Sprinkles</v>
@@ -26918,7 +26918,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>'Programs to include'!A39</f>
         <v>Sprinkles (malaria area)</v>
@@ -26927,7 +26927,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of MAM</v>
@@ -26936,7 +26936,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
@@ -26945,7 +26945,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
         <v>Vitamin A supplementation</v>
@@ -26957,7 +26957,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
         <v>WASH: Handwashing</v>
@@ -26969,7 +26969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
         <v>WASH: Hygenic disposal</v>
@@ -26981,7 +26981,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved sanitation</v>
@@ -26993,7 +26993,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Improved water source</v>
@@ -27005,7 +27005,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Piped water</v>
@@ -27017,7 +27017,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc for treatment + ORS</v>
@@ -27026,7 +27026,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
         <v>Zinc supplementation</v>
@@ -27041,7 +27041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 1</v>
@@ -27053,7 +27053,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 2</v>
@@ -27065,7 +27065,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
@@ -27093,7 +27093,7 @@
       <selection activeCell="B2" sqref="B2:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -27108,7 +27108,7 @@
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>240</v>
       </c>
@@ -27143,7 +27143,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -27172,7 +27172,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -27201,7 +27201,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -27230,7 +27230,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -27259,7 +27259,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -27288,7 +27288,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>108</v>
       </c>
@@ -27303,7 +27303,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>109</v>
       </c>
@@ -27318,7 +27318,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>110</v>
       </c>
@@ -27333,7 +27333,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>111</v>
       </c>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>104</v>
       </c>
@@ -27356,7 +27356,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>105</v>
       </c>
@@ -27364,7 +27364,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>106</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>107</v>
       </c>
@@ -27396,12 +27396,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>207</v>
       </c>
@@ -27465,7 +27465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -27561,7 +27561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
@@ -27657,7 +27657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -27689,7 +27689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>203</v>
       </c>
@@ -27722,7 +27722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>206</v>
       </c>
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -27850,7 +27850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
@@ -27882,7 +27882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -27914,7 +27914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -27978,7 +27978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -28010,7 +28010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -28042,7 +28042,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>80</v>
       </c>
@@ -28074,7 +28074,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>81</v>
       </c>
@@ -28106,7 +28106,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>82</v>
       </c>
@@ -28138,7 +28138,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>83</v>
       </c>
@@ -28170,7 +28170,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>84</v>
       </c>
@@ -28202,7 +28202,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>85</v>
       </c>
@@ -28234,7 +28234,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>86</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>87</v>
       </c>
@@ -28320,9 +28320,9 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -28342,7 +28342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>203</v>
       </c>
@@ -28362,7 +28362,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -28382,7 +28382,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -28402,7 +28402,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>140</v>
       </c>
@@ -28427,7 +28427,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>141</v>
       </c>
@@ -28464,13 +28464,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
@@ -28482,7 +28482,7 @@
     <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -28529,7 +28529,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>194</v>
       </c>
@@ -28589,7 +28589,7 @@
         <v>0.7762</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>197</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -28663,7 +28663,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>188</v>
       </c>
@@ -28710,7 +28710,7 @@
         <v>0.43469999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>189</v>
       </c>
@@ -28757,7 +28757,7 @@
         <v>0.2238</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="110" t="s">
         <v>190</v>
       </c>
@@ -28802,52 +28802,6 @@
       </c>
       <c r="O7" s="64">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="E10">
-        <f t="shared" ref="E10:O10" si="2">0.42*E5</f>
-        <v>0.31079999999999997</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0.17934</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>0.20222999999999999</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>0.20222999999999999</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>0.20222999999999999</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>0.20222999999999999</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>0.18257399999999999</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>0.18257399999999999</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>0.18257399999999999</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0.18257399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -28868,9 +28822,9 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -28893,7 +28847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -28921,7 +28875,7 @@
         <v>0.2168920625348294</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>23</v>
@@ -28947,7 +28901,7 @@
         <v>0.36910793746517057</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>25</v>
@@ -28968,7 +28922,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>26</v>
@@ -28989,21 +28943,21 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="67"/>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -29031,7 +28985,7 @@
         <v>0.55784394006702964</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
@@ -29056,7 +29010,7 @@
         <v>0.31615605993297041</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>140</v>
       </c>
@@ -29076,7 +29030,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>141</v>
       </c>
@@ -29096,21 +29050,21 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -29133,7 +29087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -29153,7 +29107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
@@ -29173,7 +29127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -29193,10 +29147,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
     </row>
   </sheetData>
@@ -29218,14 +29172,14 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>220</v>
       </c>
@@ -29236,7 +29190,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39">
+    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="73" t="s">
         <v>223</v>
       </c>
@@ -29247,7 +29201,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="52">
+    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B3" s="74" t="s">
         <v>225</v>
       </c>
@@ -29255,7 +29209,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="52">
+    <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B4" s="74" t="s">
         <v>226</v>
       </c>
@@ -29263,7 +29217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39">
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="B5" s="76" t="s">
         <v>227</v>
       </c>
@@ -29271,7 +29225,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="52">
+    <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B6" s="76" t="s">
         <v>228</v>
       </c>
@@ -29279,7 +29233,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52">
+    <row r="7" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B7" s="76" t="s">
         <v>229</v>
       </c>
@@ -29287,7 +29241,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26">
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B8" s="77" t="s">
         <v>230</v>
       </c>
@@ -29295,7 +29249,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="52">
+    <row r="9" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B9" s="77" t="s">
         <v>231</v>
       </c>
@@ -29303,7 +29257,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="52">
+    <row r="10" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B10" s="77" t="s">
         <v>232</v>
       </c>
@@ -29311,10 +29265,10 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="75"/>
     </row>
-    <row r="12" spans="1:3" ht="26">
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="73" t="s">
         <v>233</v>
       </c>
@@ -29325,7 +29279,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26">
+    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B13" s="78" t="s">
         <v>235</v>
       </c>
@@ -29333,7 +29287,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26">
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B14" s="78" t="s">
         <v>236</v>
       </c>
@@ -29341,7 +29295,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26">
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B15" s="78" t="s">
         <v>237</v>
       </c>
@@ -29362,11 +29316,11 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
@@ -29376,7 +29330,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>95</v>
       </c>
@@ -29396,7 +29350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -29417,21 +29371,21 @@
         <v>3.1128200000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="C3" s="63"/>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="C4" s="63"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>186</v>
       </c>
@@ -29449,7 +29403,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>201</v>
       </c>
@@ -29466,7 +29420,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>140</v>
       </c>
@@ -29483,7 +29437,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>141</v>
       </c>
@@ -29500,18 +29454,18 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="20"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
@@ -29531,7 +29485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -29548,7 +29502,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -29565,7 +29519,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -29582,7 +29536,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -29599,7 +29553,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -29616,7 +29570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
@@ -29633,7 +29587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -29650,10 +29604,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>238</v>
       </c>
@@ -29674,7 +29628,7 @@
       </c>
       <c r="G21" s="82"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="80" t="s">
         <v>225</v>
       </c>
@@ -29692,7 +29646,7 @@
       </c>
       <c r="G22" s="82"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="80" t="s">
         <v>226</v>
       </c>
@@ -29710,7 +29664,7 @@
       </c>
       <c r="G23" s="82"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="83" t="s">
         <v>227</v>
       </c>
@@ -29728,7 +29682,7 @@
       </c>
       <c r="G24" s="82"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="83" t="s">
         <v>228</v>
       </c>
@@ -29746,7 +29700,7 @@
       </c>
       <c r="G25" s="82"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="83" t="s">
         <v>229</v>
       </c>
@@ -29764,7 +29718,7 @@
       </c>
       <c r="G26" s="82"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="84" t="s">
         <v>230</v>
       </c>
@@ -29782,7 +29736,7 @@
       </c>
       <c r="G27" s="82"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="84" t="s">
         <v>231</v>
       </c>
@@ -29800,7 +29754,7 @@
       </c>
       <c r="G28" s="82"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="84" t="s">
         <v>232</v>
       </c>
@@ -29818,7 +29772,7 @@
       </c>
       <c r="G29" s="82"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="86"/>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
@@ -29826,7 +29780,7 @@
       <c r="F30" s="81"/>
       <c r="G30" s="82"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
       <c r="C31" s="85"/>
       <c r="D31" s="85"/>
@@ -29834,7 +29788,7 @@
       <c r="F31" s="85"/>
       <c r="G31" s="82"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>239</v>
       </c>
@@ -29855,7 +29809,7 @@
       </c>
       <c r="G32" s="82"/>
     </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="86" t="s">
         <v>235</v>
       </c>
@@ -29873,7 +29827,7 @@
       </c>
       <c r="G33" s="82"/>
     </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1">
+    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="86" t="s">
         <v>236</v>
       </c>
@@ -29891,7 +29845,7 @@
       </c>
       <c r="G34" s="82"/>
     </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1">
+    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="86" t="s">
         <v>237</v>
       </c>
